--- a/Data_TicketPromedio.xlsx
+++ b/Data_TicketPromedio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="34">
   <si>
     <t>Distribuidora</t>
   </si>
@@ -110,6 +110,24 @@
   <si>
     <t>Fecha de Generacion …</t>
   </si>
+  <si>
+    <t>Mesa</t>
+  </si>
+  <si>
+    <t>(KCCN) Mesa Desconocida</t>
+  </si>
+  <si>
+    <t>(KCC ) Oficina</t>
+  </si>
+  <si>
+    <t>(KCC1) Mesa 1</t>
+  </si>
+  <si>
+    <t>(KCC2) Mesa 2</t>
+  </si>
+  <si>
+    <t>(KCC0) Oficina</t>
+  </si>
 </sst>
 </file>
 
@@ -164,14 +182,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:F83" totalsRowShown="0">
-  <autoFilter ref="B3:F83"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:G158" totalsRowShown="0">
+  <autoFilter ref="B3:G158"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="Distribuidora"/>
     <tableColumn id="2" name="MES"/>
     <tableColumn id="3" name="Categoria"/>
-    <tableColumn id="4" name="Soles"/>
-    <tableColumn id="5" name="Pedidos"/>
+    <tableColumn id="4" name="Mesa"/>
+    <tableColumn id="5" name="Soles"/>
+    <tableColumn id="6" name="Pedidos"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -440,19 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F83"/>
+  <dimension ref="B3:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -463,13 +483,16 @@
         <v>2</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -479,14 +502,17 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4">
         <v>16173.28</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>386</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -496,14 +522,17 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5">
         <v>184405.01</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>4401</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -513,14 +542,17 @@
       <c r="D6" t="s">
         <v>9</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6">
         <v>44750.33</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1664</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -530,14 +562,17 @@
       <c r="D7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
         <v>408123.44</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6222</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -547,14 +582,17 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8">
         <v>162794.82</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2249</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -564,14 +602,17 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9">
         <v>14643.02</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>356</v>
       </c>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -581,14 +622,17 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
         <v>163387.68</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3934</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -598,14 +642,17 @@
       <c r="D11" t="s">
         <v>9</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
         <v>41016.94</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>1552</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -615,14 +662,17 @@
       <c r="D12" t="s">
         <v>10</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
         <v>360974.6</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5731</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -632,14 +682,17 @@
       <c r="D13" t="s">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13">
         <v>141926.96</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>1983</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -649,14 +702,17 @@
       <c r="D14" t="s">
         <v>7</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
         <v>18340.990000000002</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>437</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -666,14 +722,17 @@
       <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
         <v>182668.14</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>4333</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -683,14 +742,17 @@
       <c r="D16" t="s">
         <v>9</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
         <v>44604</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1573</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -700,14 +762,17 @@
       <c r="D17" t="s">
         <v>10</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
         <v>426237</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>6312</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -717,14 +782,17 @@
       <c r="D18" t="s">
         <v>11</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
         <v>180623.87</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2313</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -734,14 +802,17 @@
       <c r="D19" t="s">
         <v>7</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
         <v>14359.1</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>375</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -751,14 +822,17 @@
       <c r="D20" t="s">
         <v>8</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
         <v>213462.77</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>4624</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -768,14 +842,17 @@
       <c r="D21" t="s">
         <v>9</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
         <v>58709.75</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1775</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -785,14 +862,17 @@
       <c r="D22" t="s">
         <v>10</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
         <v>469262.79</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>6756</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -802,14 +882,17 @@
       <c r="D23" t="s">
         <v>11</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23">
         <v>182731.17</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>2347</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -819,14 +902,17 @@
       <c r="D24" t="s">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
         <v>21453.439999999999</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>515</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -836,14 +922,17 @@
       <c r="D25" t="s">
         <v>8</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
         <v>206247.62</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>4983</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>5</v>
       </c>
@@ -853,14 +942,17 @@
       <c r="D26" t="s">
         <v>9</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
         <v>52618.17</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>1863</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -870,14 +962,17 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
         <v>495274.3</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>7479</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -887,14 +982,17 @@
       <c r="D28" t="s">
         <v>11</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28">
         <v>214955.07</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>2803</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -904,14 +1002,17 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29">
         <v>23177.32</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>516</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -921,14 +1022,17 @@
       <c r="D30" t="s">
         <v>8</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
         <v>211975.85</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>4765</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -938,14 +1042,17 @@
       <c r="D31" t="s">
         <v>9</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31">
         <v>48635.64</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1761</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -955,14 +1062,17 @@
       <c r="D32" t="s">
         <v>10</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32">
         <v>515511.16</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>7147</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -972,14 +1082,17 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33">
         <v>231722.35</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>2633</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -989,14 +1102,17 @@
       <c r="D34" t="s">
         <v>7</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34">
         <v>22752.55</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>470</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -1006,14 +1122,17 @@
       <c r="D35" t="s">
         <v>8</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35">
         <v>215354.18</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>4486</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>5</v>
       </c>
@@ -1023,14 +1142,17 @@
       <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36">
         <v>50672.3</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>1682</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>5</v>
       </c>
@@ -1040,14 +1162,17 @@
       <c r="D37" t="s">
         <v>10</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F37">
         <v>493571.2</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>6615</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -1057,14 +1182,17 @@
       <c r="D38" t="s">
         <v>11</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="F38">
         <v>204792.17</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>2266</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>5</v>
       </c>
@@ -1074,14 +1202,17 @@
       <c r="D39" t="s">
         <v>7</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39">
         <v>23932.39</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>545</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -1091,14 +1222,17 @@
       <c r="D40" t="s">
         <v>8</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="s">
+        <v>29</v>
+      </c>
+      <c r="F40">
         <v>239464.45</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>4974</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -1108,14 +1242,17 @@
       <c r="D41" t="s">
         <v>9</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41">
         <v>53915.22</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>1724</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>5</v>
       </c>
@@ -1125,14 +1262,17 @@
       <c r="D42" t="s">
         <v>10</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42">
         <v>535550.65</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>7111</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -1142,14 +1282,17 @@
       <c r="D43" t="s">
         <v>11</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43">
         <v>218238.59</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>2511</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>5</v>
       </c>
@@ -1159,14 +1302,17 @@
       <c r="D44" t="s">
         <v>7</v>
       </c>
-      <c r="E44">
-        <v>21945.43</v>
+      <c r="E44" t="s">
+        <v>30</v>
       </c>
       <c r="F44">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+        <v>260.52999999999997</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>5</v>
       </c>
@@ -1174,16 +1320,19 @@
         <v>19</v>
       </c>
       <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45">
-        <v>239157.29</v>
+        <v>7</v>
+      </c>
+      <c r="E45" t="s">
+        <v>31</v>
       </c>
       <c r="F45">
-        <v>4723</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+        <v>14488.34</v>
+      </c>
+      <c r="G45">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>5</v>
       </c>
@@ -1191,16 +1340,19 @@
         <v>19</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
-      </c>
-      <c r="E46">
-        <v>58749.47</v>
+        <v>7</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
       </c>
       <c r="F46">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+        <v>7196.56</v>
+      </c>
+      <c r="G46">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>5</v>
       </c>
@@ -1208,16 +1360,19 @@
         <v>19</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47">
-        <v>546099.91</v>
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>30</v>
       </c>
       <c r="F47">
-        <v>7170</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1086.52</v>
+      </c>
+      <c r="G47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>5</v>
       </c>
@@ -1225,608 +1380,2216 @@
         <v>19</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48">
-        <v>226247.72</v>
+        <v>8</v>
+      </c>
+      <c r="E48" t="s">
+        <v>31</v>
       </c>
       <c r="F48">
-        <v>2451</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+        <v>130277.5</v>
+      </c>
+      <c r="G48">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D49" t="s">
-        <v>7</v>
-      </c>
-      <c r="E49">
-        <v>23417.66</v>
+        <v>8</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
       </c>
       <c r="F49">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+        <v>107793.27</v>
+      </c>
+      <c r="G49">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>5</v>
       </c>
       <c r="C50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50">
-        <v>253398.86</v>
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>30</v>
       </c>
       <c r="F50">
-        <v>4971</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+        <v>205.31</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>5</v>
       </c>
       <c r="C51" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
         <v>9</v>
       </c>
-      <c r="E51">
-        <v>50579.94</v>
+      <c r="E51" t="s">
+        <v>31</v>
       </c>
       <c r="F51">
-        <v>1675</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+        <v>37281.279999999999</v>
+      </c>
+      <c r="G51">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D52" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s">
+        <v>32</v>
+      </c>
+      <c r="F52">
+        <v>21262.880000000001</v>
+      </c>
+      <c r="G52">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" t="s">
         <v>10</v>
       </c>
-      <c r="E52">
-        <v>557048.98</v>
-      </c>
-      <c r="F52">
-        <v>7222</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
+        <v>30</v>
+      </c>
+      <c r="F53">
+        <v>7033.36</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54">
+        <v>324051.05</v>
+      </c>
+      <c r="G54">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55">
+        <v>215015.5</v>
+      </c>
+      <c r="G55">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56" t="s">
+        <v>19</v>
+      </c>
+      <c r="D56" t="s">
         <v>11</v>
       </c>
-      <c r="E53">
-        <v>229652.52</v>
-      </c>
-      <c r="F53">
-        <v>2426</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>21</v>
-      </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>24871.65</v>
-      </c>
-      <c r="F54">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" t="s">
-        <v>21</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55">
-        <v>245813.16</v>
-      </c>
-      <c r="F55">
-        <v>4826</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" t="s">
-        <v>21</v>
-      </c>
-      <c r="D56" t="s">
-        <v>9</v>
-      </c>
-      <c r="E56">
-        <v>61889.87</v>
+      <c r="E56" t="s">
+        <v>30</v>
       </c>
       <c r="F56">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+        <v>5481</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>5</v>
       </c>
       <c r="C57" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
-      </c>
-      <c r="E57">
-        <v>560360.32999999996</v>
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>31</v>
       </c>
       <c r="F57">
-        <v>6951</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+        <v>142003.93</v>
+      </c>
+      <c r="G57">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
-      <c r="E58">
-        <v>227785.65</v>
+      <c r="E58" t="s">
+        <v>32</v>
       </c>
       <c r="F58">
-        <v>2319</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
+        <v>78762.789999999994</v>
+      </c>
+      <c r="G58">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>5</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
         <v>7</v>
       </c>
-      <c r="E59">
-        <v>18510.55</v>
+      <c r="E59" t="s">
+        <v>31</v>
       </c>
       <c r="F59">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
+        <v>14933.71</v>
+      </c>
+      <c r="G59">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>5</v>
       </c>
       <c r="C60" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60">
+        <v>8483.9500000000007</v>
+      </c>
+      <c r="G60">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" t="s">
         <v>8</v>
       </c>
-      <c r="E60">
-        <v>241823.68</v>
-      </c>
-      <c r="F60">
-        <v>4621</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
+        <v>30</v>
+      </c>
+      <c r="F61">
+        <v>1260</v>
+      </c>
+      <c r="G61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" t="s">
+        <v>31</v>
+      </c>
+      <c r="F62">
+        <v>134134.81</v>
+      </c>
+      <c r="G62">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>20</v>
+      </c>
+      <c r="D63" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" t="s">
+        <v>32</v>
+      </c>
+      <c r="F63">
+        <v>118004.05</v>
+      </c>
+      <c r="G63">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+      <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="E61">
-        <v>37872.050000000003</v>
-      </c>
-      <c r="F61">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" t="s">
-        <v>22</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+      <c r="F64">
+        <v>34051.919999999998</v>
+      </c>
+      <c r="G64">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D65" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" t="s">
+        <v>32</v>
+      </c>
+      <c r="F65">
+        <v>16528.02</v>
+      </c>
+      <c r="G65">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>20</v>
+      </c>
+      <c r="D66" t="s">
         <v>10</v>
       </c>
-      <c r="E62">
-        <v>474157.54</v>
-      </c>
-      <c r="F62">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" t="s">
-        <v>22</v>
-      </c>
-      <c r="D63" t="s">
-        <v>11</v>
-      </c>
-      <c r="E63">
-        <v>175951.26</v>
-      </c>
-      <c r="F63">
-        <v>2122</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64">
-        <v>21864.3</v>
-      </c>
-      <c r="F64">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65">
-        <v>209549.19</v>
-      </c>
-      <c r="F65">
-        <v>3802</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66">
-        <v>42765.71</v>
+      <c r="E66" t="s">
+        <v>30</v>
       </c>
       <c r="F66">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
+        <v>6305</v>
+      </c>
+      <c r="G66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D67" t="s">
         <v>10</v>
       </c>
-      <c r="E67">
-        <v>452303.98</v>
+      <c r="E67" t="s">
+        <v>31</v>
       </c>
       <c r="F67">
-        <v>5358</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
+        <v>307720.40999999997</v>
+      </c>
+      <c r="G67">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>5</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D68" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>32</v>
+      </c>
+      <c r="F68">
+        <v>243023.57</v>
+      </c>
+      <c r="G68">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>20</v>
+      </c>
+      <c r="D69" t="s">
         <v>11</v>
       </c>
-      <c r="E68">
-        <v>178124.78</v>
-      </c>
-      <c r="F68">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" t="s">
-        <v>24</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="E69" t="s">
+        <v>30</v>
+      </c>
+      <c r="F69">
+        <v>5045</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>20</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>31</v>
+      </c>
+      <c r="F70">
+        <v>124599.97</v>
+      </c>
+      <c r="G70">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>32</v>
+      </c>
+      <c r="F71">
+        <v>100007.55</v>
+      </c>
+      <c r="G71">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" t="s">
         <v>7</v>
       </c>
-      <c r="E69">
-        <v>11783.58</v>
-      </c>
-      <c r="F69">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" t="s">
-        <v>24</v>
-      </c>
-      <c r="D70" t="s">
+      <c r="E72" t="s">
+        <v>31</v>
+      </c>
+      <c r="F72">
+        <v>15380.89</v>
+      </c>
+      <c r="G72">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>21</v>
+      </c>
+      <c r="D73" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" t="s">
+        <v>32</v>
+      </c>
+      <c r="F73">
+        <v>9490.76</v>
+      </c>
+      <c r="G73">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" t="s">
+        <v>21</v>
+      </c>
+      <c r="D74" t="s">
         <v>8</v>
       </c>
-      <c r="E70">
-        <v>188506.4</v>
-      </c>
-      <c r="F70">
-        <v>3355</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" t="s">
-        <v>24</v>
-      </c>
-      <c r="D71" t="s">
-        <v>9</v>
-      </c>
-      <c r="E71">
-        <v>53587.519999999997</v>
-      </c>
-      <c r="F71">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72">
-        <v>411236.09</v>
-      </c>
-      <c r="F72">
-        <v>5079</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" t="s">
-        <v>24</v>
-      </c>
-      <c r="D73" t="s">
-        <v>11</v>
-      </c>
-      <c r="E73">
-        <v>157358.59</v>
-      </c>
-      <c r="F73">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
-      <c r="E74">
-        <v>11234.47</v>
+      <c r="E74" t="s">
+        <v>30</v>
       </c>
       <c r="F74">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
       </c>
-      <c r="E75">
-        <v>174892.27</v>
+      <c r="E75" t="s">
+        <v>31</v>
       </c>
       <c r="F75">
-        <v>2885</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
+        <v>125602.6</v>
+      </c>
+      <c r="G75">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D76" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>32</v>
+      </c>
+      <c r="F76">
+        <v>119345.56</v>
+      </c>
+      <c r="G76">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" t="s">
+        <v>21</v>
+      </c>
+      <c r="D77" t="s">
         <v>9</v>
       </c>
-      <c r="E76">
-        <v>40731.410000000003</v>
-      </c>
-      <c r="F76">
-        <v>1173</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>31</v>
+      </c>
+      <c r="F77">
+        <v>36770.04</v>
+      </c>
+      <c r="G77">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" t="s">
+        <v>21</v>
+      </c>
+      <c r="D78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s">
+        <v>32</v>
+      </c>
+      <c r="F78">
+        <v>25119.83</v>
+      </c>
+      <c r="G78">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" t="s">
         <v>10</v>
       </c>
-      <c r="E77">
-        <v>388947.31</v>
-      </c>
-      <c r="F77">
-        <v>4181</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
-      <c r="C78" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E79" t="s">
+        <v>30</v>
+      </c>
+      <c r="F79">
+        <v>4780</v>
+      </c>
+      <c r="G79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>5</v>
+      </c>
+      <c r="C80" t="s">
+        <v>21</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" t="s">
+        <v>31</v>
+      </c>
+      <c r="F80">
+        <v>309732.77</v>
+      </c>
+      <c r="G80">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>32</v>
+      </c>
+      <c r="F81">
+        <v>245847.56</v>
+      </c>
+      <c r="G81">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" t="s">
         <v>11</v>
       </c>
-      <c r="E78">
-        <v>162089.16</v>
-      </c>
-      <c r="F78">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
-      <c r="C79" t="s">
-        <v>26</v>
-      </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
-      <c r="E79">
-        <v>10774.65</v>
-      </c>
-      <c r="F79">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
-      <c r="C80" t="s">
-        <v>26</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80">
-        <v>165835.12</v>
-      </c>
-      <c r="F80">
-        <v>2945</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" t="s">
-        <v>26</v>
-      </c>
-      <c r="D81" t="s">
-        <v>9</v>
-      </c>
-      <c r="E81">
-        <v>30449.81</v>
-      </c>
-      <c r="F81">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
-      <c r="C82" t="s">
-        <v>26</v>
-      </c>
-      <c r="D82" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82">
-        <v>297333.5</v>
+      <c r="E82" t="s">
+        <v>30</v>
       </c>
       <c r="F82">
-        <v>3841</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3915</v>
+      </c>
+      <c r="G82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
         <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D83" t="s">
         <v>11</v>
       </c>
-      <c r="E83">
-        <v>90273.919999999998</v>
+      <c r="E83" t="s">
+        <v>31</v>
       </c>
       <c r="F83">
-        <v>1021</v>
+        <v>131979.24</v>
+      </c>
+      <c r="G83">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>21</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>32</v>
+      </c>
+      <c r="F84">
+        <v>91891.41</v>
+      </c>
+      <c r="G84">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>30</v>
+      </c>
+      <c r="F85">
+        <v>21.35</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>31</v>
+      </c>
+      <c r="F86">
+        <v>10066.09</v>
+      </c>
+      <c r="G86">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>22</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F87">
+        <v>8423.11</v>
+      </c>
+      <c r="G87">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D88" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88">
+        <v>2096.71</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>22</v>
+      </c>
+      <c r="D89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" t="s">
+        <v>31</v>
+      </c>
+      <c r="F89">
+        <v>111434.99</v>
+      </c>
+      <c r="G89">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" t="s">
+        <v>22</v>
+      </c>
+      <c r="D90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" t="s">
+        <v>32</v>
+      </c>
+      <c r="F90">
+        <v>128291.98</v>
+      </c>
+      <c r="G90">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>22</v>
+      </c>
+      <c r="D91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" t="s">
+        <v>31</v>
+      </c>
+      <c r="F91">
+        <v>22476.35</v>
+      </c>
+      <c r="G91">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>5</v>
+      </c>
+      <c r="C92" t="s">
+        <v>22</v>
+      </c>
+      <c r="D92" t="s">
+        <v>9</v>
+      </c>
+      <c r="E92" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92">
+        <v>15395.7</v>
+      </c>
+      <c r="G92">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" t="s">
+        <v>10</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
+      </c>
+      <c r="F93">
+        <v>2988.06</v>
+      </c>
+      <c r="G93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>5</v>
+      </c>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" t="s">
+        <v>31</v>
+      </c>
+      <c r="F94">
+        <v>242589.16</v>
+      </c>
+      <c r="G94">
+        <v>3555</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>5</v>
+      </c>
+      <c r="C95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95">
+        <v>228580.32</v>
+      </c>
+      <c r="G95">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96">
+        <v>870</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>31</v>
+      </c>
+      <c r="F97">
+        <v>98611.73</v>
+      </c>
+      <c r="G97">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>32</v>
+      </c>
+      <c r="F98">
+        <v>76469.53</v>
+      </c>
+      <c r="G98">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" t="s">
+        <v>7</v>
+      </c>
+      <c r="E99" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99">
+        <v>777.53</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>5</v>
+      </c>
+      <c r="C100" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>7</v>
+      </c>
+      <c r="E100" t="s">
+        <v>31</v>
+      </c>
+      <c r="F100">
+        <v>9730.7800000000007</v>
+      </c>
+      <c r="G100">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <v>11355.99</v>
+      </c>
+      <c r="G101">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>23</v>
+      </c>
+      <c r="D102" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102">
+        <v>6831.7</v>
+      </c>
+      <c r="G102">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>23</v>
+      </c>
+      <c r="D103" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103">
+        <v>73021.63</v>
+      </c>
+      <c r="G103">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>5</v>
+      </c>
+      <c r="C104" t="s">
+        <v>23</v>
+      </c>
+      <c r="D104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>129695.86</v>
+      </c>
+      <c r="G104">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105">
+        <v>1905.99</v>
+      </c>
+      <c r="G105">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>31</v>
+      </c>
+      <c r="F106">
+        <v>19581.18</v>
+      </c>
+      <c r="G106">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" t="s">
+        <v>23</v>
+      </c>
+      <c r="D107" t="s">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107">
+        <v>21278.54</v>
+      </c>
+      <c r="G107">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" t="s">
+        <v>10</v>
+      </c>
+      <c r="E108" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108">
+        <v>15526.43</v>
+      </c>
+      <c r="G108">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" t="s">
+        <v>23</v>
+      </c>
+      <c r="D109" t="s">
+        <v>10</v>
+      </c>
+      <c r="E109" t="s">
+        <v>31</v>
+      </c>
+      <c r="F109">
+        <v>175213.12</v>
+      </c>
+      <c r="G109">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>5</v>
+      </c>
+      <c r="C110" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>32</v>
+      </c>
+      <c r="F110">
+        <v>261564.43</v>
+      </c>
+      <c r="G110">
+        <v>2923</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" t="s">
+        <v>23</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111">
+        <v>6011.21</v>
+      </c>
+      <c r="G111">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" t="s">
+        <v>23</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112">
+        <v>72879.53</v>
+      </c>
+      <c r="G112">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" t="s">
+        <v>23</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>32</v>
+      </c>
+      <c r="F113">
+        <v>99234.04</v>
+      </c>
+      <c r="G113">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>5</v>
+      </c>
+      <c r="C114" t="s">
+        <v>24</v>
+      </c>
+      <c r="D114" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114">
+        <v>18.43</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>5</v>
+      </c>
+      <c r="C115" t="s">
+        <v>24</v>
+      </c>
+      <c r="D115" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115">
+        <v>7638.54</v>
+      </c>
+      <c r="G115">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" t="s">
+        <v>32</v>
+      </c>
+      <c r="F116">
+        <v>4126.6099999999997</v>
+      </c>
+      <c r="G116">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117">
+        <v>2866.44</v>
+      </c>
+      <c r="G117">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" t="s">
+        <v>24</v>
+      </c>
+      <c r="D118" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118">
+        <v>87313.74</v>
+      </c>
+      <c r="G118">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>5</v>
+      </c>
+      <c r="C119" t="s">
+        <v>24</v>
+      </c>
+      <c r="D119" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" t="s">
+        <v>32</v>
+      </c>
+      <c r="F119">
+        <v>98326.22</v>
+      </c>
+      <c r="G119">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>5</v>
+      </c>
+      <c r="C120" t="s">
+        <v>24</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120">
+        <v>462.89</v>
+      </c>
+      <c r="G120">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" t="s">
+        <v>24</v>
+      </c>
+      <c r="D121" t="s">
+        <v>9</v>
+      </c>
+      <c r="E121" t="s">
+        <v>31</v>
+      </c>
+      <c r="F121">
+        <v>34726.339999999997</v>
+      </c>
+      <c r="G121">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" t="s">
+        <v>24</v>
+      </c>
+      <c r="D122" t="s">
+        <v>9</v>
+      </c>
+      <c r="E122" t="s">
+        <v>32</v>
+      </c>
+      <c r="F122">
+        <v>18398.29</v>
+      </c>
+      <c r="G122">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>24</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123">
+        <v>4910.93</v>
+      </c>
+      <c r="G123">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>5</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124" t="s">
+        <v>10</v>
+      </c>
+      <c r="E124" t="s">
+        <v>31</v>
+      </c>
+      <c r="F124">
+        <v>224341.24</v>
+      </c>
+      <c r="G124">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>10</v>
+      </c>
+      <c r="E125" t="s">
+        <v>32</v>
+      </c>
+      <c r="F125">
+        <v>181983.92</v>
+      </c>
+      <c r="G125">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>5</v>
+      </c>
+      <c r="C126" t="s">
+        <v>24</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126">
+        <v>1563.17</v>
+      </c>
+      <c r="G126">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>24</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F127">
+        <v>94662.62</v>
+      </c>
+      <c r="G127">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>5</v>
+      </c>
+      <c r="C128" t="s">
+        <v>24</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>32</v>
+      </c>
+      <c r="F128">
+        <v>61132.800000000003</v>
+      </c>
+      <c r="G128">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>25</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+      <c r="E129" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129">
+        <v>167.11</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>5</v>
+      </c>
+      <c r="C130" t="s">
+        <v>25</v>
+      </c>
+      <c r="D130" t="s">
+        <v>7</v>
+      </c>
+      <c r="E130" t="s">
+        <v>31</v>
+      </c>
+      <c r="F130">
+        <v>4837.25</v>
+      </c>
+      <c r="G130">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>7</v>
+      </c>
+      <c r="E131" t="s">
+        <v>32</v>
+      </c>
+      <c r="F131">
+        <v>6230.11</v>
+      </c>
+      <c r="G131">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132">
+        <v>4409.68</v>
+      </c>
+      <c r="G132">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>5</v>
+      </c>
+      <c r="C133" t="s">
+        <v>25</v>
+      </c>
+      <c r="D133" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133">
+        <v>71995.48</v>
+      </c>
+      <c r="G133">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>25</v>
+      </c>
+      <c r="D134" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134">
+        <v>98487.11</v>
+      </c>
+      <c r="G134">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>5</v>
+      </c>
+      <c r="C135" t="s">
+        <v>25</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135">
+        <v>858.31</v>
+      </c>
+      <c r="G135">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>5</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136">
+        <v>23086.720000000001</v>
+      </c>
+      <c r="G136">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137">
+        <v>16786.38</v>
+      </c>
+      <c r="G137">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" t="s">
+        <v>25</v>
+      </c>
+      <c r="D138" t="s">
+        <v>10</v>
+      </c>
+      <c r="E138" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138">
+        <v>6649.02</v>
+      </c>
+      <c r="G138">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>5</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139">
+        <v>185907.20000000001</v>
+      </c>
+      <c r="G139">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140" t="s">
+        <v>32</v>
+      </c>
+      <c r="F140">
+        <v>196391.09</v>
+      </c>
+      <c r="G140">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>5</v>
+      </c>
+      <c r="C141" t="s">
+        <v>25</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141">
+        <v>1213.92</v>
+      </c>
+      <c r="G141">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>25</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142">
+        <v>85987.75</v>
+      </c>
+      <c r="G142">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" t="s">
+        <v>25</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143">
+        <v>74887.490000000005</v>
+      </c>
+      <c r="G143">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>26</v>
+      </c>
+      <c r="D144" t="s">
+        <v>7</v>
+      </c>
+      <c r="E144" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>5</v>
+      </c>
+      <c r="C145" t="s">
+        <v>26</v>
+      </c>
+      <c r="D145" t="s">
+        <v>7</v>
+      </c>
+      <c r="E145" t="s">
+        <v>31</v>
+      </c>
+      <c r="F145">
+        <v>8499.5400000000009</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" t="s">
+        <v>26</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>32</v>
+      </c>
+      <c r="F146">
+        <v>2234.41</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147">
+        <v>535.66999999999996</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>5</v>
+      </c>
+      <c r="C148" t="s">
+        <v>26</v>
+      </c>
+      <c r="D148" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148">
+        <v>87329.62</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>5</v>
+      </c>
+      <c r="C149" t="s">
+        <v>26</v>
+      </c>
+      <c r="D149" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" t="s">
+        <v>32</v>
+      </c>
+      <c r="F149">
+        <v>77969.83</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" t="s">
+        <v>26</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150">
+        <v>182.67</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" t="s">
+        <v>26</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151">
+        <v>20567.54</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>5</v>
+      </c>
+      <c r="C152" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>32</v>
+      </c>
+      <c r="F152">
+        <v>9699.6</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" t="s">
+        <v>26</v>
+      </c>
+      <c r="D153" t="s">
+        <v>10</v>
+      </c>
+      <c r="E153" t="s">
+        <v>33</v>
+      </c>
+      <c r="F153">
+        <v>1112.2</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
+        <v>5</v>
+      </c>
+      <c r="C154" t="s">
+        <v>26</v>
+      </c>
+      <c r="D154" t="s">
+        <v>10</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154">
+        <v>174046.29</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>5</v>
+      </c>
+      <c r="C155" t="s">
+        <v>26</v>
+      </c>
+      <c r="D155" t="s">
+        <v>10</v>
+      </c>
+      <c r="E155" t="s">
+        <v>32</v>
+      </c>
+      <c r="F155">
+        <v>122175.01</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>5</v>
+      </c>
+      <c r="C156" t="s">
+        <v>26</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>30</v>
+      </c>
+      <c r="F156">
+        <v>353.16</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157">
+        <v>57649.59</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>5</v>
+      </c>
+      <c r="C158" t="s">
+        <v>26</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" t="s">
+        <v>32</v>
+      </c>
+      <c r="F158">
+        <v>32271.17</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data_TicketPromedio.xlsx
+++ b/Data_TicketPromedio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="33">
   <si>
     <t>Distribuidora</t>
   </si>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t>(KCC2) Mesa 2</t>
-  </si>
-  <si>
-    <t>(KCC0) Oficina</t>
   </si>
 </sst>
 </file>
@@ -462,7 +459,7 @@
   <dimension ref="B3:G158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3309,7 +3306,7 @@
         <v>40.700000000000003</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -3329,7 +3326,7 @@
         <v>8499.5400000000009</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
@@ -3349,7 +3346,7 @@
         <v>2234.41</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>57</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -3369,7 +3366,7 @@
         <v>535.66999999999996</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
@@ -3389,7 +3386,7 @@
         <v>87329.62</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -3409,7 +3406,7 @@
         <v>77969.83</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
@@ -3429,7 +3426,7 @@
         <v>182.67</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -3449,7 +3446,7 @@
         <v>20567.54</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -3469,7 +3466,7 @@
         <v>9699.6</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>294</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -3483,13 +3480,13 @@
         <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F153">
         <v>1112.2</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -3509,7 +3506,7 @@
         <v>174046.29</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>2335</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -3529,7 +3526,7 @@
         <v>122175.01</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -3549,7 +3546,7 @@
         <v>353.16</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -3569,7 +3566,7 @@
         <v>57649.59</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>665</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
@@ -3589,7 +3586,7 @@
         <v>32271.17</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>

--- a/Data_TicketPromedio.xlsx
+++ b/Data_TicketPromedio.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="37">
   <si>
     <t>Distribuidora</t>
   </si>
@@ -125,6 +125,18 @@
   <si>
     <t>(KCC2) Mesa 2</t>
   </si>
+  <si>
+    <t>MOLI</t>
+  </si>
+  <si>
+    <t>(KCC2) Mesa Cobertura</t>
+  </si>
+  <si>
+    <t>(KCC ) Mesa AutoVentas</t>
+  </si>
+  <si>
+    <t>(KCC1) Mesa Mayorista</t>
+  </si>
 </sst>
 </file>
 
@@ -179,8 +191,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:G158" totalsRowShown="0">
-  <autoFilter ref="B3:G158"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="B3:G337" totalsRowShown="0">
+  <autoFilter ref="B3:G337"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Distribuidora"/>
     <tableColumn id="2" name="MES"/>
@@ -456,11 +468,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G158"/>
+  <dimension ref="B3:G337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -503,7 +513,7 @@
         <v>29</v>
       </c>
       <c r="F4">
-        <v>16173.28</v>
+        <v>13706.39</v>
       </c>
       <c r="G4">
         <v>386</v>
@@ -523,7 +533,7 @@
         <v>29</v>
       </c>
       <c r="F5">
-        <v>184405.01</v>
+        <v>156277.29</v>
       </c>
       <c r="G5">
         <v>4401</v>
@@ -543,7 +553,7 @@
         <v>29</v>
       </c>
       <c r="F6">
-        <v>44750.33</v>
+        <v>37927.360000000001</v>
       </c>
       <c r="G6">
         <v>1664</v>
@@ -563,7 +573,7 @@
         <v>29</v>
       </c>
       <c r="F7">
-        <v>408123.44</v>
+        <v>345877.95</v>
       </c>
       <c r="G7">
         <v>6222</v>
@@ -583,7 +593,7 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <v>162794.82</v>
+        <v>137966.91</v>
       </c>
       <c r="G8">
         <v>2249</v>
@@ -603,7 +613,7 @@
         <v>29</v>
       </c>
       <c r="F9">
-        <v>14643.02</v>
+        <v>12409.48</v>
       </c>
       <c r="G9">
         <v>356</v>
@@ -623,7 +633,7 @@
         <v>29</v>
       </c>
       <c r="F10">
-        <v>163387.68</v>
+        <v>138466.46</v>
       </c>
       <c r="G10">
         <v>3934</v>
@@ -643,7 +653,7 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>41016.94</v>
+        <v>34763.870000000003</v>
       </c>
       <c r="G11">
         <v>1552</v>
@@ -663,7 +673,7 @@
         <v>29</v>
       </c>
       <c r="F12">
-        <v>360974.6</v>
+        <v>305921.57</v>
       </c>
       <c r="G12">
         <v>5731</v>
@@ -683,7 +693,7 @@
         <v>29</v>
       </c>
       <c r="F13">
-        <v>141926.96</v>
+        <v>120281.76</v>
       </c>
       <c r="G13">
         <v>1983</v>
@@ -703,7 +713,7 @@
         <v>29</v>
       </c>
       <c r="F14">
-        <v>18340.990000000002</v>
+        <v>15543.65</v>
       </c>
       <c r="G14">
         <v>437</v>
@@ -723,7 +733,7 @@
         <v>29</v>
       </c>
       <c r="F15">
-        <v>182668.14</v>
+        <v>154804.54999999999</v>
       </c>
       <c r="G15">
         <v>4333</v>
@@ -743,7 +753,7 @@
         <v>29</v>
       </c>
       <c r="F16">
-        <v>44604</v>
+        <v>37801.879999999997</v>
       </c>
       <c r="G16">
         <v>1573</v>
@@ -763,7 +773,7 @@
         <v>29</v>
       </c>
       <c r="F17">
-        <v>426237</v>
+        <v>361225.98</v>
       </c>
       <c r="G17">
         <v>6312</v>
@@ -783,7 +793,7 @@
         <v>29</v>
       </c>
       <c r="F18">
-        <v>180623.87</v>
+        <v>153075.9</v>
       </c>
       <c r="G18">
         <v>2313</v>
@@ -803,7 +813,7 @@
         <v>29</v>
       </c>
       <c r="F19">
-        <v>14359.1</v>
+        <v>12169.02</v>
       </c>
       <c r="G19">
         <v>375</v>
@@ -823,7 +833,7 @@
         <v>29</v>
       </c>
       <c r="F20">
-        <v>213462.77</v>
+        <v>180900.94</v>
       </c>
       <c r="G20">
         <v>4624</v>
@@ -843,7 +853,7 @@
         <v>29</v>
       </c>
       <c r="F21">
-        <v>58709.75</v>
+        <v>49755.72</v>
       </c>
       <c r="G21">
         <v>1775</v>
@@ -863,7 +873,7 @@
         <v>29</v>
       </c>
       <c r="F22">
-        <v>469262.79</v>
+        <v>397684.9</v>
       </c>
       <c r="G22">
         <v>6756</v>
@@ -883,7 +893,7 @@
         <v>29</v>
       </c>
       <c r="F23">
-        <v>182731.17</v>
+        <v>154859.22</v>
       </c>
       <c r="G23">
         <v>2347</v>
@@ -903,7 +913,7 @@
         <v>29</v>
       </c>
       <c r="F24">
-        <v>21453.439999999999</v>
+        <v>18181.16</v>
       </c>
       <c r="G24">
         <v>515</v>
@@ -923,7 +933,7 @@
         <v>29</v>
       </c>
       <c r="F25">
-        <v>206247.62</v>
+        <v>174786.43</v>
       </c>
       <c r="G25">
         <v>4983</v>
@@ -943,7 +953,7 @@
         <v>29</v>
       </c>
       <c r="F26">
-        <v>52618.17</v>
+        <v>44592.78</v>
       </c>
       <c r="G26">
         <v>1863</v>
@@ -963,7 +973,7 @@
         <v>29</v>
       </c>
       <c r="F27">
-        <v>495274.3</v>
+        <v>419726.43</v>
       </c>
       <c r="G27">
         <v>7479</v>
@@ -983,7 +993,7 @@
         <v>29</v>
       </c>
       <c r="F28">
-        <v>214955.07</v>
+        <v>182166.06</v>
       </c>
       <c r="G28">
         <v>2803</v>
@@ -1003,7 +1013,7 @@
         <v>29</v>
       </c>
       <c r="F29">
-        <v>23177.32</v>
+        <v>19642.099999999999</v>
       </c>
       <c r="G29">
         <v>516</v>
@@ -1023,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>211975.85</v>
+        <v>179641.49</v>
       </c>
       <c r="G30">
         <v>4765</v>
@@ -1043,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="F31">
-        <v>48635.64</v>
+        <v>41216.53</v>
       </c>
       <c r="G31">
         <v>1761</v>
@@ -1063,7 +1073,7 @@
         <v>29</v>
       </c>
       <c r="F32">
-        <v>515511.16</v>
+        <v>436875.34</v>
       </c>
       <c r="G32">
         <v>7147</v>
@@ -1083,7 +1093,7 @@
         <v>29</v>
       </c>
       <c r="F33">
-        <v>231722.35</v>
+        <v>196375.22</v>
       </c>
       <c r="G33">
         <v>2633</v>
@@ -1103,7 +1113,7 @@
         <v>29</v>
       </c>
       <c r="F34">
-        <v>22752.55</v>
+        <v>19282.259999999998</v>
       </c>
       <c r="G34">
         <v>470</v>
@@ -1123,7 +1133,7 @@
         <v>29</v>
       </c>
       <c r="F35">
-        <v>215354.18</v>
+        <v>182503.51</v>
       </c>
       <c r="G35">
         <v>4486</v>
@@ -1143,7 +1153,7 @@
         <v>29</v>
       </c>
       <c r="F36">
-        <v>50672.3</v>
+        <v>42942.02</v>
       </c>
       <c r="G36">
         <v>1682</v>
@@ -1163,7 +1173,7 @@
         <v>29</v>
       </c>
       <c r="F37">
-        <v>493571.2</v>
+        <v>418280.7</v>
       </c>
       <c r="G37">
         <v>6615</v>
@@ -1183,7 +1193,7 @@
         <v>29</v>
       </c>
       <c r="F38">
-        <v>204792.17</v>
+        <v>173552.91</v>
       </c>
       <c r="G38">
         <v>2266</v>
@@ -1203,7 +1213,7 @@
         <v>29</v>
       </c>
       <c r="F39">
-        <v>23932.39</v>
+        <v>20281.990000000002</v>
       </c>
       <c r="G39">
         <v>545</v>
@@ -1223,7 +1233,7 @@
         <v>29</v>
       </c>
       <c r="F40">
-        <v>239464.45</v>
+        <v>202936.08</v>
       </c>
       <c r="G40">
         <v>4974</v>
@@ -1243,7 +1253,7 @@
         <v>29</v>
       </c>
       <c r="F41">
-        <v>53915.22</v>
+        <v>45689.83</v>
       </c>
       <c r="G41">
         <v>1724</v>
@@ -1263,7 +1273,7 @@
         <v>29</v>
       </c>
       <c r="F42">
-        <v>535550.65</v>
+        <v>453856.46</v>
       </c>
       <c r="G42">
         <v>7111</v>
@@ -1283,7 +1293,7 @@
         <v>29</v>
       </c>
       <c r="F43">
-        <v>218238.59</v>
+        <v>184948.56</v>
       </c>
       <c r="G43">
         <v>2511</v>
@@ -1303,7 +1313,7 @@
         <v>30</v>
       </c>
       <c r="F44">
-        <v>260.52999999999997</v>
+        <v>220.79</v>
       </c>
       <c r="G44">
         <v>1</v>
@@ -1323,7 +1333,7 @@
         <v>31</v>
       </c>
       <c r="F45">
-        <v>14488.34</v>
+        <v>12278.41</v>
       </c>
       <c r="G45">
         <v>307</v>
@@ -1343,7 +1353,7 @@
         <v>32</v>
       </c>
       <c r="F46">
-        <v>7196.56</v>
+        <v>6098.9</v>
       </c>
       <c r="G46">
         <v>170</v>
@@ -1363,7 +1373,7 @@
         <v>30</v>
       </c>
       <c r="F47">
-        <v>1086.52</v>
+        <v>920.78</v>
       </c>
       <c r="G47">
         <v>3</v>
@@ -1383,7 +1393,7 @@
         <v>31</v>
       </c>
       <c r="F48">
-        <v>130277.5</v>
+        <v>110404.89</v>
       </c>
       <c r="G48">
         <v>2748</v>
@@ -1403,7 +1413,7 @@
         <v>32</v>
       </c>
       <c r="F49">
-        <v>107793.27</v>
+        <v>91349.79</v>
       </c>
       <c r="G49">
         <v>1973</v>
@@ -1423,7 +1433,7 @@
         <v>30</v>
       </c>
       <c r="F50">
-        <v>205.31</v>
+        <v>173.99</v>
       </c>
       <c r="G50">
         <v>2</v>
@@ -1443,7 +1453,7 @@
         <v>31</v>
       </c>
       <c r="F51">
-        <v>37281.279999999999</v>
+        <v>31593.33</v>
       </c>
       <c r="G51">
         <v>1235</v>
@@ -1463,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="F52">
-        <v>21262.880000000001</v>
+        <v>18018.97</v>
       </c>
       <c r="G52">
         <v>729</v>
@@ -1483,7 +1493,7 @@
         <v>30</v>
       </c>
       <c r="F53">
-        <v>7033.36</v>
+        <v>5960.48</v>
       </c>
       <c r="G53">
         <v>6</v>
@@ -1503,7 +1513,7 @@
         <v>31</v>
       </c>
       <c r="F54">
-        <v>324051.05</v>
+        <v>274619.21000000002</v>
       </c>
       <c r="G54">
         <v>4317</v>
@@ -1523,7 +1533,7 @@
         <v>32</v>
       </c>
       <c r="F55">
-        <v>215015.5</v>
+        <v>182215.94</v>
       </c>
       <c r="G55">
         <v>2848</v>
@@ -1543,7 +1553,7 @@
         <v>30</v>
       </c>
       <c r="F56">
-        <v>5481</v>
+        <v>4644.92</v>
       </c>
       <c r="G56">
         <v>3</v>
@@ -1563,7 +1573,7 @@
         <v>31</v>
       </c>
       <c r="F57">
-        <v>142003.93</v>
+        <v>120342.58</v>
       </c>
       <c r="G57">
         <v>1568</v>
@@ -1583,7 +1593,7 @@
         <v>32</v>
       </c>
       <c r="F58">
-        <v>78762.789999999994</v>
+        <v>66748.28</v>
       </c>
       <c r="G58">
         <v>880</v>
@@ -1603,7 +1613,7 @@
         <v>31</v>
       </c>
       <c r="F59">
-        <v>14933.71</v>
+        <v>12655.86</v>
       </c>
       <c r="G59">
         <v>322</v>
@@ -1623,7 +1633,7 @@
         <v>32</v>
       </c>
       <c r="F60">
-        <v>8483.9500000000007</v>
+        <v>7189.94</v>
       </c>
       <c r="G60">
         <v>203</v>
@@ -1643,7 +1653,7 @@
         <v>30</v>
       </c>
       <c r="F61">
-        <v>1260</v>
+        <v>1067.79</v>
       </c>
       <c r="G61">
         <v>3</v>
@@ -1663,7 +1673,7 @@
         <v>31</v>
       </c>
       <c r="F62">
-        <v>134134.81</v>
+        <v>113674.76</v>
       </c>
       <c r="G62">
         <v>2846</v>
@@ -1683,7 +1693,7 @@
         <v>32</v>
       </c>
       <c r="F63">
-        <v>118004.05</v>
+        <v>100003.56</v>
       </c>
       <c r="G63">
         <v>2122</v>
@@ -1703,7 +1713,7 @@
         <v>31</v>
       </c>
       <c r="F64">
-        <v>34051.919999999998</v>
+        <v>28856.98</v>
       </c>
       <c r="G64">
         <v>1118</v>
@@ -1723,7 +1733,7 @@
         <v>32</v>
       </c>
       <c r="F65">
-        <v>16528.02</v>
+        <v>14006.58</v>
       </c>
       <c r="G65">
         <v>557</v>
@@ -1743,7 +1753,7 @@
         <v>30</v>
       </c>
       <c r="F66">
-        <v>6305</v>
+        <v>5343.2</v>
       </c>
       <c r="G66">
         <v>6</v>
@@ -1763,7 +1773,7 @@
         <v>31</v>
       </c>
       <c r="F67">
-        <v>307720.40999999997</v>
+        <v>260781.24</v>
       </c>
       <c r="G67">
         <v>4255</v>
@@ -1783,7 +1793,7 @@
         <v>32</v>
       </c>
       <c r="F68">
-        <v>243023.57</v>
+        <v>205952.4</v>
       </c>
       <c r="G68">
         <v>2961</v>
@@ -1803,7 +1813,7 @@
         <v>30</v>
       </c>
       <c r="F69">
-        <v>5045</v>
+        <v>4275.41</v>
       </c>
       <c r="G69">
         <v>5</v>
@@ -1823,7 +1833,7 @@
         <v>31</v>
       </c>
       <c r="F70">
-        <v>124599.97</v>
+        <v>105593.64</v>
       </c>
       <c r="G70">
         <v>1480</v>
@@ -1843,7 +1853,7 @@
         <v>32</v>
       </c>
       <c r="F71">
-        <v>100007.55</v>
+        <v>84752.320000000007</v>
       </c>
       <c r="G71">
         <v>941</v>
@@ -1863,7 +1873,7 @@
         <v>31</v>
       </c>
       <c r="F72">
-        <v>15380.89</v>
+        <v>13034.83</v>
       </c>
       <c r="G72">
         <v>333</v>
@@ -1883,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="F73">
-        <v>9490.76</v>
+        <v>8043.2</v>
       </c>
       <c r="G73">
         <v>210</v>
@@ -1903,7 +1913,7 @@
         <v>30</v>
       </c>
       <c r="F74">
-        <v>865</v>
+        <v>733.05</v>
       </c>
       <c r="G74">
         <v>2</v>
@@ -1923,7 +1933,7 @@
         <v>31</v>
       </c>
       <c r="F75">
-        <v>125602.6</v>
+        <v>106444.02</v>
       </c>
       <c r="G75">
         <v>2768</v>
@@ -1943,7 +1953,7 @@
         <v>32</v>
       </c>
       <c r="F76">
-        <v>119345.56</v>
+        <v>101140.69</v>
       </c>
       <c r="G76">
         <v>2056</v>
@@ -1963,7 +1973,7 @@
         <v>31</v>
       </c>
       <c r="F77">
-        <v>36770.04</v>
+        <v>31160.07</v>
       </c>
       <c r="G77">
         <v>1171</v>
@@ -1983,7 +1993,7 @@
         <v>32</v>
       </c>
       <c r="F78">
-        <v>25119.83</v>
+        <v>21287.59</v>
       </c>
       <c r="G78">
         <v>757</v>
@@ -2003,7 +2013,7 @@
         <v>30</v>
       </c>
       <c r="F79">
-        <v>4780</v>
+        <v>4050.85</v>
       </c>
       <c r="G79">
         <v>4</v>
@@ -2023,7 +2033,7 @@
         <v>31</v>
       </c>
       <c r="F80">
-        <v>309732.77</v>
+        <v>262485.96999999997</v>
       </c>
       <c r="G80">
         <v>4067</v>
@@ -2043,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="F81">
-        <v>245847.56</v>
+        <v>208345.53</v>
       </c>
       <c r="G81">
         <v>2880</v>
@@ -2063,7 +2073,7 @@
         <v>30</v>
       </c>
       <c r="F82">
-        <v>3915</v>
+        <v>3317.8</v>
       </c>
       <c r="G82">
         <v>3</v>
@@ -2083,7 +2093,7 @@
         <v>31</v>
       </c>
       <c r="F83">
-        <v>131979.24</v>
+        <v>111847.05</v>
       </c>
       <c r="G83">
         <v>1446</v>
@@ -2103,7 +2113,7 @@
         <v>32</v>
       </c>
       <c r="F84">
-        <v>91891.41</v>
+        <v>77874.05</v>
       </c>
       <c r="G84">
         <v>870</v>
@@ -2123,7 +2133,7 @@
         <v>30</v>
       </c>
       <c r="F85">
-        <v>21.35</v>
+        <v>18.09</v>
       </c>
       <c r="G85">
         <v>1</v>
@@ -2143,7 +2153,7 @@
         <v>31</v>
       </c>
       <c r="F86">
-        <v>10066.09</v>
+        <v>8530.7900000000009</v>
       </c>
       <c r="G86">
         <v>240</v>
@@ -2163,7 +2173,7 @@
         <v>32</v>
       </c>
       <c r="F87">
-        <v>8423.11</v>
+        <v>7138.33</v>
       </c>
       <c r="G87">
         <v>163</v>
@@ -2183,7 +2193,7 @@
         <v>30</v>
       </c>
       <c r="F88">
-        <v>2096.71</v>
+        <v>1776.87</v>
       </c>
       <c r="G88">
         <v>4</v>
@@ -2203,7 +2213,7 @@
         <v>31</v>
       </c>
       <c r="F89">
-        <v>111434.99</v>
+        <v>94437.71</v>
       </c>
       <c r="G89">
         <v>2535</v>
@@ -2223,7 +2233,7 @@
         <v>32</v>
       </c>
       <c r="F90">
-        <v>128291.98</v>
+        <v>108722.69</v>
       </c>
       <c r="G90">
         <v>2082</v>
@@ -2243,7 +2253,7 @@
         <v>31</v>
       </c>
       <c r="F91">
-        <v>22476.35</v>
+        <v>19047.68</v>
       </c>
       <c r="G91">
         <v>761</v>
@@ -2263,7 +2273,7 @@
         <v>32</v>
       </c>
       <c r="F92">
-        <v>15395.7</v>
+        <v>13047.12</v>
       </c>
       <c r="G92">
         <v>484</v>
@@ -2283,7 +2293,7 @@
         <v>30</v>
       </c>
       <c r="F93">
-        <v>2988.06</v>
+        <v>2532.2399999999998</v>
       </c>
       <c r="G93">
         <v>6</v>
@@ -2303,7 +2313,7 @@
         <v>31</v>
       </c>
       <c r="F94">
-        <v>242589.16</v>
+        <v>205585.86</v>
       </c>
       <c r="G94">
         <v>3555</v>
@@ -2323,7 +2333,7 @@
         <v>32</v>
       </c>
       <c r="F95">
-        <v>228580.32</v>
+        <v>193713.02</v>
       </c>
       <c r="G95">
         <v>2696</v>
@@ -2343,7 +2353,7 @@
         <v>30</v>
       </c>
       <c r="F96">
-        <v>870</v>
+        <v>737.28</v>
       </c>
       <c r="G96">
         <v>1</v>
@@ -2363,7 +2373,7 @@
         <v>31</v>
       </c>
       <c r="F97">
-        <v>98611.73</v>
+        <v>83569.679999999993</v>
       </c>
       <c r="G97">
         <v>1315</v>
@@ -2383,7 +2393,7 @@
         <v>32</v>
       </c>
       <c r="F98">
-        <v>76469.53</v>
+        <v>64804.88</v>
       </c>
       <c r="G98">
         <v>806</v>
@@ -2403,7 +2413,7 @@
         <v>30</v>
       </c>
       <c r="F99">
-        <v>777.53</v>
+        <v>658.92</v>
       </c>
       <c r="G99">
         <v>14</v>
@@ -2423,7 +2433,7 @@
         <v>31</v>
       </c>
       <c r="F100">
-        <v>9730.7800000000007</v>
+        <v>8246.52</v>
       </c>
       <c r="G100">
         <v>166</v>
@@ -2443,7 +2453,7 @@
         <v>32</v>
       </c>
       <c r="F101">
-        <v>11355.99</v>
+        <v>9623.7900000000009</v>
       </c>
       <c r="G101">
         <v>215</v>
@@ -2463,7 +2473,7 @@
         <v>30</v>
       </c>
       <c r="F102">
-        <v>6831.7</v>
+        <v>5789.58</v>
       </c>
       <c r="G102">
         <v>115</v>
@@ -2483,7 +2493,7 @@
         <v>31</v>
       </c>
       <c r="F103">
-        <v>73021.63</v>
+        <v>61883.41</v>
       </c>
       <c r="G103">
         <v>1571</v>
@@ -2503,7 +2513,7 @@
         <v>32</v>
       </c>
       <c r="F104">
-        <v>129695.86</v>
+        <v>109912.19</v>
       </c>
       <c r="G104">
         <v>2116</v>
@@ -2523,7 +2533,7 @@
         <v>30</v>
       </c>
       <c r="F105">
-        <v>1905.99</v>
+        <v>1615.19</v>
       </c>
       <c r="G105">
         <v>65</v>
@@ -2543,7 +2553,7 @@
         <v>31</v>
       </c>
       <c r="F106">
-        <v>19581.18</v>
+        <v>16593.849999999999</v>
       </c>
       <c r="G106">
         <v>656</v>
@@ -2563,7 +2573,7 @@
         <v>32</v>
       </c>
       <c r="F107">
-        <v>21278.54</v>
+        <v>18032.3</v>
       </c>
       <c r="G107">
         <v>698</v>
@@ -2583,7 +2593,7 @@
         <v>30</v>
       </c>
       <c r="F108">
-        <v>15526.43</v>
+        <v>13157.99</v>
       </c>
       <c r="G108">
         <v>174</v>
@@ -2603,7 +2613,7 @@
         <v>31</v>
       </c>
       <c r="F109">
-        <v>175213.12</v>
+        <v>148486.39000000001</v>
       </c>
       <c r="G109">
         <v>2261</v>
@@ -2623,7 +2633,7 @@
         <v>32</v>
       </c>
       <c r="F110">
-        <v>261564.43</v>
+        <v>221665.27</v>
       </c>
       <c r="G110">
         <v>2923</v>
@@ -2643,7 +2653,7 @@
         <v>30</v>
       </c>
       <c r="F111">
-        <v>6011.21</v>
+        <v>5094.3</v>
       </c>
       <c r="G111">
         <v>61</v>
@@ -2663,7 +2673,7 @@
         <v>31</v>
       </c>
       <c r="F112">
-        <v>72879.53</v>
+        <v>61762.61</v>
       </c>
       <c r="G112">
         <v>850</v>
@@ -2683,7 +2693,7 @@
         <v>32</v>
       </c>
       <c r="F113">
-        <v>99234.04</v>
+        <v>84096.99</v>
       </c>
       <c r="G113">
         <v>946</v>
@@ -2703,7 +2713,7 @@
         <v>30</v>
       </c>
       <c r="F114">
-        <v>18.43</v>
+        <v>15.62</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -2723,7 +2733,7 @@
         <v>31</v>
       </c>
       <c r="F115">
-        <v>7638.54</v>
+        <v>6473.43</v>
       </c>
       <c r="G115">
         <v>170</v>
@@ -2743,7 +2753,7 @@
         <v>32</v>
       </c>
       <c r="F116">
-        <v>4126.6099999999997</v>
+        <v>3497.18</v>
       </c>
       <c r="G116">
         <v>97</v>
@@ -2763,7 +2773,7 @@
         <v>30</v>
       </c>
       <c r="F117">
-        <v>2866.44</v>
+        <v>2429.19</v>
       </c>
       <c r="G117">
         <v>27</v>
@@ -2783,7 +2793,7 @@
         <v>31</v>
       </c>
       <c r="F118">
-        <v>87313.74</v>
+        <v>73997.350000000006</v>
       </c>
       <c r="G118">
         <v>1824</v>
@@ -2803,7 +2813,7 @@
         <v>32</v>
       </c>
       <c r="F119">
-        <v>98326.22</v>
+        <v>83328.850000000006</v>
       </c>
       <c r="G119">
         <v>1504</v>
@@ -2823,7 +2833,7 @@
         <v>30</v>
       </c>
       <c r="F120">
-        <v>462.89</v>
+        <v>392.25</v>
       </c>
       <c r="G120">
         <v>13</v>
@@ -2843,7 +2853,7 @@
         <v>31</v>
       </c>
       <c r="F121">
-        <v>34726.339999999997</v>
+        <v>29429.27</v>
       </c>
       <c r="G121">
         <v>1001</v>
@@ -2863,7 +2873,7 @@
         <v>32</v>
       </c>
       <c r="F122">
-        <v>18398.29</v>
+        <v>15591.93</v>
       </c>
       <c r="G122">
         <v>601</v>
@@ -2883,7 +2893,7 @@
         <v>30</v>
       </c>
       <c r="F123">
-        <v>4910.93</v>
+        <v>4161.79</v>
       </c>
       <c r="G123">
         <v>34</v>
@@ -2903,7 +2913,7 @@
         <v>31</v>
       </c>
       <c r="F124">
-        <v>224341.24</v>
+        <v>190123.21</v>
       </c>
       <c r="G124">
         <v>2876</v>
@@ -2923,7 +2933,7 @@
         <v>32</v>
       </c>
       <c r="F125">
-        <v>181983.92</v>
+        <v>154225.79</v>
       </c>
       <c r="G125">
         <v>2169</v>
@@ -2943,7 +2953,7 @@
         <v>30</v>
       </c>
       <c r="F126">
-        <v>1563.17</v>
+        <v>1324.73</v>
       </c>
       <c r="G126">
         <v>14</v>
@@ -2963,7 +2973,7 @@
         <v>31</v>
       </c>
       <c r="F127">
-        <v>94662.62</v>
+        <v>80223.16</v>
       </c>
       <c r="G127">
         <v>1120</v>
@@ -2983,7 +2993,7 @@
         <v>32</v>
       </c>
       <c r="F128">
-        <v>61132.800000000003</v>
+        <v>51807.83</v>
       </c>
       <c r="G128">
         <v>616</v>
@@ -3003,7 +3013,7 @@
         <v>30</v>
       </c>
       <c r="F129">
-        <v>167.11</v>
+        <v>141.62</v>
       </c>
       <c r="G129">
         <v>1</v>
@@ -3023,7 +3033,7 @@
         <v>31</v>
       </c>
       <c r="F130">
-        <v>4837.25</v>
+        <v>4099.4399999999996</v>
       </c>
       <c r="G130">
         <v>117</v>
@@ -3043,7 +3053,7 @@
         <v>32</v>
       </c>
       <c r="F131">
-        <v>6230.11</v>
+        <v>5279.82</v>
       </c>
       <c r="G131">
         <v>89</v>
@@ -3063,7 +3073,7 @@
         <v>30</v>
       </c>
       <c r="F132">
-        <v>4409.68</v>
+        <v>3737.02</v>
       </c>
       <c r="G132">
         <v>67</v>
@@ -3083,7 +3093,7 @@
         <v>31</v>
       </c>
       <c r="F133">
-        <v>71995.48</v>
+        <v>61013.98</v>
       </c>
       <c r="G133">
         <v>1424</v>
@@ -3103,7 +3113,7 @@
         <v>32</v>
       </c>
       <c r="F134">
-        <v>98487.11</v>
+        <v>83464.070000000007</v>
       </c>
       <c r="G134">
         <v>1460</v>
@@ -3123,7 +3133,7 @@
         <v>30</v>
       </c>
       <c r="F135">
-        <v>858.31</v>
+        <v>727.39</v>
       </c>
       <c r="G135">
         <v>24</v>
@@ -3143,7 +3153,7 @@
         <v>31</v>
       </c>
       <c r="F136">
-        <v>23086.720000000001</v>
+        <v>19565.5</v>
       </c>
       <c r="G136">
         <v>692</v>
@@ -3163,7 +3173,7 @@
         <v>32</v>
       </c>
       <c r="F137">
-        <v>16786.38</v>
+        <v>14225.99</v>
       </c>
       <c r="G137">
         <v>481</v>
@@ -3183,7 +3193,7 @@
         <v>30</v>
       </c>
       <c r="F138">
-        <v>6649.02</v>
+        <v>5634.8</v>
       </c>
       <c r="G138">
         <v>83</v>
@@ -3203,7 +3213,7 @@
         <v>31</v>
       </c>
       <c r="F139">
-        <v>185907.20000000001</v>
+        <v>157550.32</v>
       </c>
       <c r="G139">
         <v>2210</v>
@@ -3223,7 +3233,7 @@
         <v>32</v>
       </c>
       <c r="F140">
-        <v>196391.09</v>
+        <v>166434.20000000001</v>
       </c>
       <c r="G140">
         <v>1970</v>
@@ -3243,7 +3253,7 @@
         <v>30</v>
       </c>
       <c r="F141">
-        <v>1213.92</v>
+        <v>1028.77</v>
       </c>
       <c r="G141">
         <v>14</v>
@@ -3263,7 +3273,7 @@
         <v>31</v>
       </c>
       <c r="F142">
-        <v>85987.75</v>
+        <v>72871.399999999994</v>
       </c>
       <c r="G142">
         <v>855</v>
@@ -3283,7 +3293,7 @@
         <v>32</v>
       </c>
       <c r="F143">
-        <v>74887.490000000005</v>
+        <v>63464.32</v>
       </c>
       <c r="G143">
         <v>589</v>
@@ -3303,7 +3313,7 @@
         <v>30</v>
       </c>
       <c r="F144">
-        <v>40.700000000000003</v>
+        <v>34.49</v>
       </c>
       <c r="G144">
         <v>3</v>
@@ -3323,7 +3333,7 @@
         <v>31</v>
       </c>
       <c r="F145">
-        <v>8499.5400000000009</v>
+        <v>7203.16</v>
       </c>
       <c r="G145">
         <v>153</v>
@@ -3343,7 +3353,7 @@
         <v>32</v>
       </c>
       <c r="F146">
-        <v>2234.41</v>
+        <v>1893.63</v>
       </c>
       <c r="G146">
         <v>57</v>
@@ -3363,7 +3373,7 @@
         <v>30</v>
       </c>
       <c r="F147">
-        <v>535.66999999999996</v>
+        <v>453.98</v>
       </c>
       <c r="G147">
         <v>17</v>
@@ -3383,7 +3393,7 @@
         <v>31</v>
       </c>
       <c r="F148">
-        <v>87329.62</v>
+        <v>74009.31</v>
       </c>
       <c r="G148">
         <v>1734</v>
@@ -3403,7 +3413,7 @@
         <v>32</v>
       </c>
       <c r="F149">
-        <v>77969.83</v>
+        <v>66076.679999999993</v>
       </c>
       <c r="G149">
         <v>1194</v>
@@ -3423,7 +3433,7 @@
         <v>30</v>
       </c>
       <c r="F150">
-        <v>182.67</v>
+        <v>154.82</v>
       </c>
       <c r="G150">
         <v>8</v>
@@ -3443,7 +3453,7 @@
         <v>31</v>
       </c>
       <c r="F151">
-        <v>20567.54</v>
+        <v>17430.43</v>
       </c>
       <c r="G151">
         <v>643</v>
@@ -3463,7 +3473,7 @@
         <v>32</v>
       </c>
       <c r="F152">
-        <v>9699.6</v>
+        <v>8220.18</v>
       </c>
       <c r="G152">
         <v>294</v>
@@ -3483,7 +3493,7 @@
         <v>30</v>
       </c>
       <c r="F153">
-        <v>1112.2</v>
+        <v>942.57</v>
       </c>
       <c r="G153">
         <v>21</v>
@@ -3503,7 +3513,7 @@
         <v>31</v>
       </c>
       <c r="F154">
-        <v>174046.29</v>
+        <v>147498.51999999999</v>
       </c>
       <c r="G154">
         <v>2335</v>
@@ -3523,7 +3533,7 @@
         <v>32</v>
       </c>
       <c r="F155">
-        <v>122175.01</v>
+        <v>103538.96</v>
       </c>
       <c r="G155">
         <v>1485</v>
@@ -3543,7 +3553,7 @@
         <v>30</v>
       </c>
       <c r="F156">
-        <v>353.16</v>
+        <v>299.27999999999997</v>
       </c>
       <c r="G156">
         <v>9</v>
@@ -3563,7 +3573,7 @@
         <v>31</v>
       </c>
       <c r="F157">
-        <v>57649.59</v>
+        <v>48855.62</v>
       </c>
       <c r="G157">
         <v>665</v>
@@ -3583,10 +3593,3590 @@
         <v>32</v>
       </c>
       <c r="F158">
-        <v>32271.17</v>
+        <v>27348.47</v>
       </c>
       <c r="G158">
         <v>347</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" t="s">
+        <v>34</v>
+      </c>
+      <c r="F159">
+        <v>3968.4</v>
+      </c>
+      <c r="G159">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" t="s">
+        <v>6</v>
+      </c>
+      <c r="D160" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" t="s">
+        <v>34</v>
+      </c>
+      <c r="F160">
+        <v>81277.95</v>
+      </c>
+      <c r="G160">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>34</v>
+      </c>
+      <c r="F161">
+        <v>12471.48</v>
+      </c>
+      <c r="G161">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" t="s">
+        <v>6</v>
+      </c>
+      <c r="D162" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" t="s">
+        <v>34</v>
+      </c>
+      <c r="F162">
+        <v>191965.53</v>
+      </c>
+      <c r="G162">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" t="s">
+        <v>11</v>
+      </c>
+      <c r="E163" t="s">
+        <v>34</v>
+      </c>
+      <c r="F163">
+        <v>94247.7</v>
+      </c>
+      <c r="G163">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" t="s">
+        <v>12</v>
+      </c>
+      <c r="D164" t="s">
+        <v>7</v>
+      </c>
+      <c r="E164" t="s">
+        <v>34</v>
+      </c>
+      <c r="F164">
+        <v>3409</v>
+      </c>
+      <c r="G164">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" t="s">
+        <v>34</v>
+      </c>
+      <c r="F165">
+        <v>75951.64</v>
+      </c>
+      <c r="G165">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" t="s">
+        <v>12</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>34</v>
+      </c>
+      <c r="F166">
+        <v>9930.7000000000007</v>
+      </c>
+      <c r="G166">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" t="s">
+        <v>12</v>
+      </c>
+      <c r="D167" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" t="s">
+        <v>34</v>
+      </c>
+      <c r="F167">
+        <v>163504.16</v>
+      </c>
+      <c r="G167">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" t="s">
+        <v>12</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>34</v>
+      </c>
+      <c r="F168">
+        <v>74212.820000000007</v>
+      </c>
+      <c r="G168">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>7</v>
+      </c>
+      <c r="E169" t="s">
+        <v>34</v>
+      </c>
+      <c r="F169">
+        <v>2983.75</v>
+      </c>
+      <c r="G169">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" t="s">
+        <v>34</v>
+      </c>
+      <c r="F170">
+        <v>78425.59</v>
+      </c>
+      <c r="G170">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" t="s">
+        <v>34</v>
+      </c>
+      <c r="F171">
+        <v>9153.44</v>
+      </c>
+      <c r="G171">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>10</v>
+      </c>
+      <c r="E172" t="s">
+        <v>34</v>
+      </c>
+      <c r="F172">
+        <v>193332.26</v>
+      </c>
+      <c r="G172">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E173" t="s">
+        <v>34</v>
+      </c>
+      <c r="F173">
+        <v>102769.48</v>
+      </c>
+      <c r="G173">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" t="s">
+        <v>14</v>
+      </c>
+      <c r="D174" t="s">
+        <v>7</v>
+      </c>
+      <c r="E174" t="s">
+        <v>34</v>
+      </c>
+      <c r="F174">
+        <v>4277.5569999999998</v>
+      </c>
+      <c r="G174">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" t="s">
+        <v>14</v>
+      </c>
+      <c r="D175" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" t="s">
+        <v>34</v>
+      </c>
+      <c r="F175">
+        <v>99768.399000000005</v>
+      </c>
+      <c r="G175">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B176" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" t="s">
+        <v>14</v>
+      </c>
+      <c r="D176" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" t="s">
+        <v>34</v>
+      </c>
+      <c r="F176">
+        <v>14298.6497</v>
+      </c>
+      <c r="G176">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" t="s">
+        <v>14</v>
+      </c>
+      <c r="D177" t="s">
+        <v>10</v>
+      </c>
+      <c r="E177" t="s">
+        <v>34</v>
+      </c>
+      <c r="F177">
+        <v>205742.46119999999</v>
+      </c>
+      <c r="G177">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" t="s">
+        <v>14</v>
+      </c>
+      <c r="D178" t="s">
+        <v>11</v>
+      </c>
+      <c r="E178" t="s">
+        <v>34</v>
+      </c>
+      <c r="F178">
+        <v>87397.855500000005</v>
+      </c>
+      <c r="G178">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" t="s">
+        <v>15</v>
+      </c>
+      <c r="D179" t="s">
+        <v>7</v>
+      </c>
+      <c r="E179" t="s">
+        <v>34</v>
+      </c>
+      <c r="F179">
+        <v>5580.9344000000001</v>
+      </c>
+      <c r="G179">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" t="s">
+        <v>15</v>
+      </c>
+      <c r="D180" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" t="s">
+        <v>34</v>
+      </c>
+      <c r="F180">
+        <v>91301.686499999996</v>
+      </c>
+      <c r="G180">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" t="s">
+        <v>15</v>
+      </c>
+      <c r="D181" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" t="s">
+        <v>34</v>
+      </c>
+      <c r="F181">
+        <v>11275.5</v>
+      </c>
+      <c r="G181">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" t="s">
+        <v>15</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
+        <v>34</v>
+      </c>
+      <c r="F182">
+        <v>217131.39290000001</v>
+      </c>
+      <c r="G182">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" t="s">
+        <v>15</v>
+      </c>
+      <c r="D183" t="s">
+        <v>11</v>
+      </c>
+      <c r="E183" t="s">
+        <v>34</v>
+      </c>
+      <c r="F183">
+        <v>108973.272</v>
+      </c>
+      <c r="G183">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" t="s">
+        <v>16</v>
+      </c>
+      <c r="D184" t="s">
+        <v>7</v>
+      </c>
+      <c r="E184" t="s">
+        <v>34</v>
+      </c>
+      <c r="F184">
+        <v>6583.72</v>
+      </c>
+      <c r="G184">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" t="s">
+        <v>16</v>
+      </c>
+      <c r="D185" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" t="s">
+        <v>34</v>
+      </c>
+      <c r="F185">
+        <v>88475.33</v>
+      </c>
+      <c r="G185">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" t="s">
+        <v>16</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>34</v>
+      </c>
+      <c r="F186">
+        <v>12683.74</v>
+      </c>
+      <c r="G186">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" t="s">
+        <v>16</v>
+      </c>
+      <c r="D187" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" t="s">
+        <v>34</v>
+      </c>
+      <c r="F187">
+        <v>226228.89</v>
+      </c>
+      <c r="G187">
+        <v>2457</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" t="s">
+        <v>16</v>
+      </c>
+      <c r="D188" t="s">
+        <v>11</v>
+      </c>
+      <c r="E188" t="s">
+        <v>34</v>
+      </c>
+      <c r="F188">
+        <v>118486.1</v>
+      </c>
+      <c r="G188">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" t="s">
+        <v>17</v>
+      </c>
+      <c r="D189" t="s">
+        <v>7</v>
+      </c>
+      <c r="E189" t="s">
+        <v>35</v>
+      </c>
+      <c r="F189">
+        <v>847</v>
+      </c>
+      <c r="G189">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" t="s">
+        <v>17</v>
+      </c>
+      <c r="D190" t="s">
+        <v>7</v>
+      </c>
+      <c r="E190" t="s">
+        <v>36</v>
+      </c>
+      <c r="F190">
+        <v>22598.51</v>
+      </c>
+      <c r="G190">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" t="s">
+        <v>17</v>
+      </c>
+      <c r="D191" t="s">
+        <v>7</v>
+      </c>
+      <c r="E191" t="s">
+        <v>34</v>
+      </c>
+      <c r="F191">
+        <v>7560.71</v>
+      </c>
+      <c r="G191">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" t="s">
+        <v>17</v>
+      </c>
+      <c r="D192" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" t="s">
+        <v>35</v>
+      </c>
+      <c r="F192">
+        <v>294724.42</v>
+      </c>
+      <c r="G192">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" t="s">
+        <v>17</v>
+      </c>
+      <c r="D193" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" t="s">
+        <v>36</v>
+      </c>
+      <c r="F193">
+        <v>453144.23</v>
+      </c>
+      <c r="G193">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" t="s">
+        <v>17</v>
+      </c>
+      <c r="D194" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" t="s">
+        <v>34</v>
+      </c>
+      <c r="F194">
+        <v>104011.63</v>
+      </c>
+      <c r="G194">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" t="s">
+        <v>17</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" t="s">
+        <v>35</v>
+      </c>
+      <c r="F195">
+        <v>574</v>
+      </c>
+      <c r="G195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B196" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" t="s">
+        <v>17</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>36</v>
+      </c>
+      <c r="F196">
+        <v>14492.45</v>
+      </c>
+      <c r="G196">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B197" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" t="s">
+        <v>17</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>34</v>
+      </c>
+      <c r="F197">
+        <v>16367.7</v>
+      </c>
+      <c r="G197">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B198" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" t="s">
+        <v>17</v>
+      </c>
+      <c r="D198" t="s">
+        <v>10</v>
+      </c>
+      <c r="E198" t="s">
+        <v>35</v>
+      </c>
+      <c r="F198">
+        <v>413618.98</v>
+      </c>
+      <c r="G198">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B199" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" t="s">
+        <v>17</v>
+      </c>
+      <c r="D199" t="s">
+        <v>10</v>
+      </c>
+      <c r="E199" t="s">
+        <v>36</v>
+      </c>
+      <c r="F199">
+        <v>1212148.72</v>
+      </c>
+      <c r="G199">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B200" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" t="s">
+        <v>17</v>
+      </c>
+      <c r="D200" t="s">
+        <v>10</v>
+      </c>
+      <c r="E200" t="s">
+        <v>34</v>
+      </c>
+      <c r="F200">
+        <v>261463.61</v>
+      </c>
+      <c r="G200">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B201" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" t="s">
+        <v>17</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" t="s">
+        <v>35</v>
+      </c>
+      <c r="F201">
+        <v>117473.56</v>
+      </c>
+      <c r="G201">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B202" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" t="s">
+        <v>17</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>36</v>
+      </c>
+      <c r="F202">
+        <v>721913.53</v>
+      </c>
+      <c r="G202">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B203" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" t="s">
+        <v>17</v>
+      </c>
+      <c r="D203" t="s">
+        <v>11</v>
+      </c>
+      <c r="E203" t="s">
+        <v>34</v>
+      </c>
+      <c r="F203">
+        <v>133523.57</v>
+      </c>
+      <c r="G203">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B204" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" t="s">
+        <v>18</v>
+      </c>
+      <c r="D204" t="s">
+        <v>7</v>
+      </c>
+      <c r="E204" t="s">
+        <v>35</v>
+      </c>
+      <c r="F204">
+        <v>156.5</v>
+      </c>
+      <c r="G204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B205" t="s">
+        <v>33</v>
+      </c>
+      <c r="C205" t="s">
+        <v>18</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>36</v>
+      </c>
+      <c r="F205">
+        <v>23107.94</v>
+      </c>
+      <c r="G205">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B206" t="s">
+        <v>33</v>
+      </c>
+      <c r="C206" t="s">
+        <v>18</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>34</v>
+      </c>
+      <c r="F206">
+        <v>8309.98</v>
+      </c>
+      <c r="G206">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B207" t="s">
+        <v>33</v>
+      </c>
+      <c r="C207" t="s">
+        <v>18</v>
+      </c>
+      <c r="D207" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" t="s">
+        <v>35</v>
+      </c>
+      <c r="F207">
+        <v>250526.89</v>
+      </c>
+      <c r="G207">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B208" t="s">
+        <v>33</v>
+      </c>
+      <c r="C208" t="s">
+        <v>18</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>36</v>
+      </c>
+      <c r="F208">
+        <v>530933.66</v>
+      </c>
+      <c r="G208">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B209" t="s">
+        <v>33</v>
+      </c>
+      <c r="C209" t="s">
+        <v>18</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" t="s">
+        <v>34</v>
+      </c>
+      <c r="F209">
+        <v>108480.76</v>
+      </c>
+      <c r="G209">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B210" t="s">
+        <v>33</v>
+      </c>
+      <c r="C210" t="s">
+        <v>18</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>35</v>
+      </c>
+      <c r="F210">
+        <v>1209.01</v>
+      </c>
+      <c r="G210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B211" t="s">
+        <v>33</v>
+      </c>
+      <c r="C211" t="s">
+        <v>18</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>36</v>
+      </c>
+      <c r="F211">
+        <v>16605.439999999999</v>
+      </c>
+      <c r="G211">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B212" t="s">
+        <v>33</v>
+      </c>
+      <c r="C212" t="s">
+        <v>18</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>34</v>
+      </c>
+      <c r="F212">
+        <v>13917.65</v>
+      </c>
+      <c r="G212">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B213" t="s">
+        <v>33</v>
+      </c>
+      <c r="C213" t="s">
+        <v>18</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
+        <v>35</v>
+      </c>
+      <c r="F213">
+        <v>331859.96000000002</v>
+      </c>
+      <c r="G213">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B214" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" t="s">
+        <v>18</v>
+      </c>
+      <c r="D214" t="s">
+        <v>10</v>
+      </c>
+      <c r="E214" t="s">
+        <v>36</v>
+      </c>
+      <c r="F214">
+        <v>1243949.47</v>
+      </c>
+      <c r="G214">
+        <v>3368</v>
+      </c>
+    </row>
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B215" t="s">
+        <v>33</v>
+      </c>
+      <c r="C215" t="s">
+        <v>18</v>
+      </c>
+      <c r="D215" t="s">
+        <v>10</v>
+      </c>
+      <c r="E215" t="s">
+        <v>34</v>
+      </c>
+      <c r="F215">
+        <v>251891.84</v>
+      </c>
+      <c r="G215">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B216" t="s">
+        <v>33</v>
+      </c>
+      <c r="C216" t="s">
+        <v>18</v>
+      </c>
+      <c r="D216" t="s">
+        <v>11</v>
+      </c>
+      <c r="E216" t="s">
+        <v>35</v>
+      </c>
+      <c r="F216">
+        <v>79967.56</v>
+      </c>
+      <c r="G216">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B217" t="s">
+        <v>33</v>
+      </c>
+      <c r="C217" t="s">
+        <v>18</v>
+      </c>
+      <c r="D217" t="s">
+        <v>11</v>
+      </c>
+      <c r="E217" t="s">
+        <v>36</v>
+      </c>
+      <c r="F217">
+        <v>673302.43</v>
+      </c>
+      <c r="G217">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B218" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" t="s">
+        <v>18</v>
+      </c>
+      <c r="D218" t="s">
+        <v>11</v>
+      </c>
+      <c r="E218" t="s">
+        <v>34</v>
+      </c>
+      <c r="F218">
+        <v>121183.45</v>
+      </c>
+      <c r="G218">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B219" t="s">
+        <v>33</v>
+      </c>
+      <c r="C219" t="s">
+        <v>19</v>
+      </c>
+      <c r="D219" t="s">
+        <v>7</v>
+      </c>
+      <c r="E219" t="s">
+        <v>36</v>
+      </c>
+      <c r="F219">
+        <v>20587.13</v>
+      </c>
+      <c r="G219">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B220" t="s">
+        <v>33</v>
+      </c>
+      <c r="C220" t="s">
+        <v>19</v>
+      </c>
+      <c r="D220" t="s">
+        <v>7</v>
+      </c>
+      <c r="E220" t="s">
+        <v>34</v>
+      </c>
+      <c r="F220">
+        <v>7020.11</v>
+      </c>
+      <c r="G220">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B221" t="s">
+        <v>33</v>
+      </c>
+      <c r="C221" t="s">
+        <v>19</v>
+      </c>
+      <c r="D221" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" t="s">
+        <v>35</v>
+      </c>
+      <c r="F221">
+        <v>148295.75</v>
+      </c>
+      <c r="G221">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B222" t="s">
+        <v>33</v>
+      </c>
+      <c r="C222" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" t="s">
+        <v>36</v>
+      </c>
+      <c r="F222">
+        <v>427372.12</v>
+      </c>
+      <c r="G222">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>33</v>
+      </c>
+      <c r="C223" t="s">
+        <v>19</v>
+      </c>
+      <c r="D223" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" t="s">
+        <v>34</v>
+      </c>
+      <c r="F223">
+        <v>110926.14</v>
+      </c>
+      <c r="G223">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B224" t="s">
+        <v>33</v>
+      </c>
+      <c r="C224" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>35</v>
+      </c>
+      <c r="F224">
+        <v>1739.2</v>
+      </c>
+      <c r="G224">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B225" t="s">
+        <v>33</v>
+      </c>
+      <c r="C225" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>36</v>
+      </c>
+      <c r="F225">
+        <v>10477.629999999999</v>
+      </c>
+      <c r="G225">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B226" t="s">
+        <v>33</v>
+      </c>
+      <c r="C226" t="s">
+        <v>19</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" t="s">
+        <v>34</v>
+      </c>
+      <c r="F226">
+        <v>16214.93</v>
+      </c>
+      <c r="G226">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B227" t="s">
+        <v>33</v>
+      </c>
+      <c r="C227" t="s">
+        <v>19</v>
+      </c>
+      <c r="D227" t="s">
+        <v>10</v>
+      </c>
+      <c r="E227" t="s">
+        <v>35</v>
+      </c>
+      <c r="F227">
+        <v>229965.01</v>
+      </c>
+      <c r="G227">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B228" t="s">
+        <v>33</v>
+      </c>
+      <c r="C228" t="s">
+        <v>19</v>
+      </c>
+      <c r="D228" t="s">
+        <v>10</v>
+      </c>
+      <c r="E228" t="s">
+        <v>36</v>
+      </c>
+      <c r="F228">
+        <v>1152371.8999999999</v>
+      </c>
+      <c r="G228">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B229" t="s">
+        <v>33</v>
+      </c>
+      <c r="C229" t="s">
+        <v>19</v>
+      </c>
+      <c r="D229" t="s">
+        <v>10</v>
+      </c>
+      <c r="E229" t="s">
+        <v>34</v>
+      </c>
+      <c r="F229">
+        <v>269060.32</v>
+      </c>
+      <c r="G229">
+        <v>2482</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B230" t="s">
+        <v>33</v>
+      </c>
+      <c r="C230" t="s">
+        <v>19</v>
+      </c>
+      <c r="D230" t="s">
+        <v>11</v>
+      </c>
+      <c r="E230" t="s">
+        <v>35</v>
+      </c>
+      <c r="F230">
+        <v>79930.06</v>
+      </c>
+      <c r="G230">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B231" t="s">
+        <v>33</v>
+      </c>
+      <c r="C231" t="s">
+        <v>19</v>
+      </c>
+      <c r="D231" t="s">
+        <v>11</v>
+      </c>
+      <c r="E231" t="s">
+        <v>36</v>
+      </c>
+      <c r="F231">
+        <v>693935.02</v>
+      </c>
+      <c r="G231">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B232" t="s">
+        <v>33</v>
+      </c>
+      <c r="C232" t="s">
+        <v>19</v>
+      </c>
+      <c r="D232" t="s">
+        <v>11</v>
+      </c>
+      <c r="E232" t="s">
+        <v>34</v>
+      </c>
+      <c r="F232">
+        <v>134899.14000000001</v>
+      </c>
+      <c r="G232">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B233" t="s">
+        <v>33</v>
+      </c>
+      <c r="C233" t="s">
+        <v>20</v>
+      </c>
+      <c r="D233" t="s">
+        <v>7</v>
+      </c>
+      <c r="E233" t="s">
+        <v>35</v>
+      </c>
+      <c r="F233">
+        <v>205.5</v>
+      </c>
+      <c r="G233">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B234" t="s">
+        <v>33</v>
+      </c>
+      <c r="C234" t="s">
+        <v>20</v>
+      </c>
+      <c r="D234" t="s">
+        <v>7</v>
+      </c>
+      <c r="E234" t="s">
+        <v>36</v>
+      </c>
+      <c r="F234">
+        <v>26684.9</v>
+      </c>
+      <c r="G234">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B235" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235" t="s">
+        <v>20</v>
+      </c>
+      <c r="D235" t="s">
+        <v>7</v>
+      </c>
+      <c r="E235" t="s">
+        <v>34</v>
+      </c>
+      <c r="F235">
+        <v>8316.1200000000008</v>
+      </c>
+      <c r="G235">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B236" t="s">
+        <v>33</v>
+      </c>
+      <c r="C236" t="s">
+        <v>20</v>
+      </c>
+      <c r="D236" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" t="s">
+        <v>35</v>
+      </c>
+      <c r="F236">
+        <v>180108.83</v>
+      </c>
+      <c r="G236">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B237" t="s">
+        <v>33</v>
+      </c>
+      <c r="C237" t="s">
+        <v>20</v>
+      </c>
+      <c r="D237" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" t="s">
+        <v>36</v>
+      </c>
+      <c r="F237">
+        <v>494231.9</v>
+      </c>
+      <c r="G237">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B238" t="s">
+        <v>33</v>
+      </c>
+      <c r="C238" t="s">
+        <v>20</v>
+      </c>
+      <c r="D238" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" t="s">
+        <v>34</v>
+      </c>
+      <c r="F238">
+        <v>114981.59080000001</v>
+      </c>
+      <c r="G238">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B239" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239" t="s">
+        <v>20</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>35</v>
+      </c>
+      <c r="F239">
+        <v>596.51</v>
+      </c>
+      <c r="G239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B240" t="s">
+        <v>33</v>
+      </c>
+      <c r="C240" t="s">
+        <v>20</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
+        <v>36</v>
+      </c>
+      <c r="F240">
+        <v>23508.080000000002</v>
+      </c>
+      <c r="G240">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B241" t="s">
+        <v>33</v>
+      </c>
+      <c r="C241" t="s">
+        <v>20</v>
+      </c>
+      <c r="D241" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>34</v>
+      </c>
+      <c r="F241">
+        <v>15102.49</v>
+      </c>
+      <c r="G241">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B242" t="s">
+        <v>33</v>
+      </c>
+      <c r="C242" t="s">
+        <v>20</v>
+      </c>
+      <c r="D242" t="s">
+        <v>10</v>
+      </c>
+      <c r="E242" t="s">
+        <v>35</v>
+      </c>
+      <c r="F242">
+        <v>272564.31</v>
+      </c>
+      <c r="G242">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B243" t="s">
+        <v>33</v>
+      </c>
+      <c r="C243" t="s">
+        <v>20</v>
+      </c>
+      <c r="D243" t="s">
+        <v>10</v>
+      </c>
+      <c r="E243" t="s">
+        <v>36</v>
+      </c>
+      <c r="F243">
+        <v>1277980.3999999999</v>
+      </c>
+      <c r="G243">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B244" t="s">
+        <v>33</v>
+      </c>
+      <c r="C244" t="s">
+        <v>20</v>
+      </c>
+      <c r="D244" t="s">
+        <v>10</v>
+      </c>
+      <c r="E244" t="s">
+        <v>34</v>
+      </c>
+      <c r="F244">
+        <v>266015.68079999997</v>
+      </c>
+      <c r="G244">
+        <v>2681</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B245" t="s">
+        <v>33</v>
+      </c>
+      <c r="C245" t="s">
+        <v>20</v>
+      </c>
+      <c r="D245" t="s">
+        <v>11</v>
+      </c>
+      <c r="E245" t="s">
+        <v>35</v>
+      </c>
+      <c r="F245">
+        <v>91653.47</v>
+      </c>
+      <c r="G245">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B246" t="s">
+        <v>33</v>
+      </c>
+      <c r="C246" t="s">
+        <v>20</v>
+      </c>
+      <c r="D246" t="s">
+        <v>11</v>
+      </c>
+      <c r="E246" t="s">
+        <v>36</v>
+      </c>
+      <c r="F246">
+        <v>733555.52</v>
+      </c>
+      <c r="G246">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B247" t="s">
+        <v>33</v>
+      </c>
+      <c r="C247" t="s">
+        <v>20</v>
+      </c>
+      <c r="D247" t="s">
+        <v>11</v>
+      </c>
+      <c r="E247" t="s">
+        <v>34</v>
+      </c>
+      <c r="F247">
+        <v>127615.48</v>
+      </c>
+      <c r="G247">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B248" t="s">
+        <v>33</v>
+      </c>
+      <c r="C248" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" t="s">
+        <v>35</v>
+      </c>
+      <c r="F248">
+        <v>1199.69</v>
+      </c>
+      <c r="G248">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B249" t="s">
+        <v>33</v>
+      </c>
+      <c r="C249" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" t="s">
+        <v>36</v>
+      </c>
+      <c r="F249">
+        <v>25539.62</v>
+      </c>
+      <c r="G249">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B250" t="s">
+        <v>33</v>
+      </c>
+      <c r="C250" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" t="s">
+        <v>34</v>
+      </c>
+      <c r="F250">
+        <v>7995.26</v>
+      </c>
+      <c r="G250">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B251" t="s">
+        <v>33</v>
+      </c>
+      <c r="C251" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" t="s">
+        <v>35</v>
+      </c>
+      <c r="F251">
+        <v>177368.23</v>
+      </c>
+      <c r="G251">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B252" t="s">
+        <v>33</v>
+      </c>
+      <c r="C252" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" t="s">
+        <v>36</v>
+      </c>
+      <c r="F252">
+        <v>510243.21879999997</v>
+      </c>
+      <c r="G252">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
+        <v>33</v>
+      </c>
+      <c r="C253" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" t="s">
+        <v>34</v>
+      </c>
+      <c r="F253">
+        <v>113292.61</v>
+      </c>
+      <c r="G253">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B254" t="s">
+        <v>33</v>
+      </c>
+      <c r="C254" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" t="s">
+        <v>35</v>
+      </c>
+      <c r="F254">
+        <v>523.13</v>
+      </c>
+      <c r="G254">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B255" t="s">
+        <v>33</v>
+      </c>
+      <c r="C255" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>36</v>
+      </c>
+      <c r="F255">
+        <v>23596.539199999999</v>
+      </c>
+      <c r="G255">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B256" t="s">
+        <v>33</v>
+      </c>
+      <c r="C256" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>34</v>
+      </c>
+      <c r="F256">
+        <v>17406.400000000001</v>
+      </c>
+      <c r="G256">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B257" t="s">
+        <v>33</v>
+      </c>
+      <c r="C257" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" t="s">
+        <v>35</v>
+      </c>
+      <c r="F257">
+        <v>284940.26</v>
+      </c>
+      <c r="G257">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B258" t="s">
+        <v>33</v>
+      </c>
+      <c r="C258" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" t="s">
+        <v>10</v>
+      </c>
+      <c r="E258" t="s">
+        <v>36</v>
+      </c>
+      <c r="F258">
+        <v>1328731.1780000001</v>
+      </c>
+      <c r="G258">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B259" t="s">
+        <v>33</v>
+      </c>
+      <c r="C259" t="s">
+        <v>21</v>
+      </c>
+      <c r="D259" t="s">
+        <v>10</v>
+      </c>
+      <c r="E259" t="s">
+        <v>34</v>
+      </c>
+      <c r="F259">
+        <v>262513.03000000003</v>
+      </c>
+      <c r="G259">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B260" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" t="s">
+        <v>21</v>
+      </c>
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" t="s">
+        <v>35</v>
+      </c>
+      <c r="F260">
+        <v>105849.21</v>
+      </c>
+      <c r="G260">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B261" t="s">
+        <v>33</v>
+      </c>
+      <c r="C261" t="s">
+        <v>21</v>
+      </c>
+      <c r="D261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" t="s">
+        <v>36</v>
+      </c>
+      <c r="F261">
+        <v>769351.8</v>
+      </c>
+      <c r="G261">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B262" t="s">
+        <v>33</v>
+      </c>
+      <c r="C262" t="s">
+        <v>21</v>
+      </c>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" t="s">
+        <v>34</v>
+      </c>
+      <c r="F262">
+        <v>123818.76</v>
+      </c>
+      <c r="G262">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B263" t="s">
+        <v>33</v>
+      </c>
+      <c r="C263" t="s">
+        <v>22</v>
+      </c>
+      <c r="D263" t="s">
+        <v>7</v>
+      </c>
+      <c r="E263" t="s">
+        <v>35</v>
+      </c>
+      <c r="F263">
+        <v>13738.52</v>
+      </c>
+      <c r="G263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B264" t="s">
+        <v>33</v>
+      </c>
+      <c r="C264" t="s">
+        <v>22</v>
+      </c>
+      <c r="D264" t="s">
+        <v>7</v>
+      </c>
+      <c r="E264" t="s">
+        <v>36</v>
+      </c>
+      <c r="F264">
+        <v>25628.39</v>
+      </c>
+      <c r="G264">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B265" t="s">
+        <v>33</v>
+      </c>
+      <c r="C265" t="s">
+        <v>22</v>
+      </c>
+      <c r="D265" t="s">
+        <v>7</v>
+      </c>
+      <c r="E265" t="s">
+        <v>34</v>
+      </c>
+      <c r="F265">
+        <v>8082.87</v>
+      </c>
+      <c r="G265">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B266" t="s">
+        <v>33</v>
+      </c>
+      <c r="C266" t="s">
+        <v>22</v>
+      </c>
+      <c r="D266" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" t="s">
+        <v>35</v>
+      </c>
+      <c r="F266">
+        <v>202083.83</v>
+      </c>
+      <c r="G266">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B267" t="s">
+        <v>33</v>
+      </c>
+      <c r="C267" t="s">
+        <v>22</v>
+      </c>
+      <c r="D267" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" t="s">
+        <v>36</v>
+      </c>
+      <c r="F267">
+        <v>467411.1</v>
+      </c>
+      <c r="G267">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B268" t="s">
+        <v>33</v>
+      </c>
+      <c r="C268" t="s">
+        <v>22</v>
+      </c>
+      <c r="D268" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" t="s">
+        <v>34</v>
+      </c>
+      <c r="F268">
+        <v>113235.12</v>
+      </c>
+      <c r="G268">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B269" t="s">
+        <v>33</v>
+      </c>
+      <c r="C269" t="s">
+        <v>22</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>35</v>
+      </c>
+      <c r="F269">
+        <v>1240.51</v>
+      </c>
+      <c r="G269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B270" t="s">
+        <v>33</v>
+      </c>
+      <c r="C270" t="s">
+        <v>22</v>
+      </c>
+      <c r="D270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" t="s">
+        <v>36</v>
+      </c>
+      <c r="F270">
+        <v>17686.23</v>
+      </c>
+      <c r="G270">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B271" t="s">
+        <v>33</v>
+      </c>
+      <c r="C271" t="s">
+        <v>22</v>
+      </c>
+      <c r="D271" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" t="s">
+        <v>34</v>
+      </c>
+      <c r="F271">
+        <v>14903.686</v>
+      </c>
+      <c r="G271">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B272" t="s">
+        <v>33</v>
+      </c>
+      <c r="C272" t="s">
+        <v>22</v>
+      </c>
+      <c r="D272" t="s">
+        <v>10</v>
+      </c>
+      <c r="E272" t="s">
+        <v>35</v>
+      </c>
+      <c r="F272">
+        <v>356276.46</v>
+      </c>
+      <c r="G272">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B273" t="s">
+        <v>33</v>
+      </c>
+      <c r="C273" t="s">
+        <v>22</v>
+      </c>
+      <c r="D273" t="s">
+        <v>10</v>
+      </c>
+      <c r="E273" t="s">
+        <v>36</v>
+      </c>
+      <c r="F273">
+        <v>1259546.1200000001</v>
+      </c>
+      <c r="G273">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B274" t="s">
+        <v>33</v>
+      </c>
+      <c r="C274" t="s">
+        <v>22</v>
+      </c>
+      <c r="D274" t="s">
+        <v>10</v>
+      </c>
+      <c r="E274" t="s">
+        <v>34</v>
+      </c>
+      <c r="F274">
+        <v>270066.15600000002</v>
+      </c>
+      <c r="G274">
+        <v>2635</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B275" t="s">
+        <v>33</v>
+      </c>
+      <c r="C275" t="s">
+        <v>22</v>
+      </c>
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275" t="s">
+        <v>35</v>
+      </c>
+      <c r="F275">
+        <v>139213.6</v>
+      </c>
+      <c r="G275">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B276" t="s">
+        <v>33</v>
+      </c>
+      <c r="C276" t="s">
+        <v>22</v>
+      </c>
+      <c r="D276" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" t="s">
+        <v>36</v>
+      </c>
+      <c r="F276">
+        <v>748820.4</v>
+      </c>
+      <c r="G276">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B277" t="s">
+        <v>33</v>
+      </c>
+      <c r="C277" t="s">
+        <v>22</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" t="s">
+        <v>34</v>
+      </c>
+      <c r="F277">
+        <v>133844.48000000001</v>
+      </c>
+      <c r="G277">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B278" t="s">
+        <v>33</v>
+      </c>
+      <c r="C278" t="s">
+        <v>23</v>
+      </c>
+      <c r="D278" t="s">
+        <v>7</v>
+      </c>
+      <c r="E278" t="s">
+        <v>35</v>
+      </c>
+      <c r="F278">
+        <v>885.89</v>
+      </c>
+      <c r="G278">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>33</v>
+      </c>
+      <c r="C279" t="s">
+        <v>23</v>
+      </c>
+      <c r="D279" t="s">
+        <v>7</v>
+      </c>
+      <c r="E279" t="s">
+        <v>36</v>
+      </c>
+      <c r="F279">
+        <v>25870.87</v>
+      </c>
+      <c r="G279">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>33</v>
+      </c>
+      <c r="C280" t="s">
+        <v>23</v>
+      </c>
+      <c r="D280" t="s">
+        <v>7</v>
+      </c>
+      <c r="E280" t="s">
+        <v>34</v>
+      </c>
+      <c r="F280">
+        <v>8471.9699999999993</v>
+      </c>
+      <c r="G280">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>33</v>
+      </c>
+      <c r="C281" t="s">
+        <v>23</v>
+      </c>
+      <c r="D281" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" t="s">
+        <v>35</v>
+      </c>
+      <c r="F281">
+        <v>218530.05</v>
+      </c>
+      <c r="G281">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>33</v>
+      </c>
+      <c r="C282" t="s">
+        <v>23</v>
+      </c>
+      <c r="D282" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" t="s">
+        <v>36</v>
+      </c>
+      <c r="F282">
+        <v>637034.78</v>
+      </c>
+      <c r="G282">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>33</v>
+      </c>
+      <c r="C283" t="s">
+        <v>23</v>
+      </c>
+      <c r="D283" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" t="s">
+        <v>34</v>
+      </c>
+      <c r="F283">
+        <v>115401.57</v>
+      </c>
+      <c r="G283">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>33</v>
+      </c>
+      <c r="C284" t="s">
+        <v>23</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" t="s">
+        <v>35</v>
+      </c>
+      <c r="F284">
+        <v>4404.01</v>
+      </c>
+      <c r="G284">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>33</v>
+      </c>
+      <c r="C285" t="s">
+        <v>23</v>
+      </c>
+      <c r="D285" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>36</v>
+      </c>
+      <c r="F285">
+        <v>23461.41</v>
+      </c>
+      <c r="G285">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>33</v>
+      </c>
+      <c r="C286" t="s">
+        <v>23</v>
+      </c>
+      <c r="D286" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>34</v>
+      </c>
+      <c r="F286">
+        <v>20892.54</v>
+      </c>
+      <c r="G286">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>33</v>
+      </c>
+      <c r="C287" t="s">
+        <v>23</v>
+      </c>
+      <c r="D287" t="s">
+        <v>10</v>
+      </c>
+      <c r="E287" t="s">
+        <v>35</v>
+      </c>
+      <c r="F287">
+        <v>341672.33</v>
+      </c>
+      <c r="G287">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>33</v>
+      </c>
+      <c r="C288" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" t="s">
+        <v>10</v>
+      </c>
+      <c r="E288" t="s">
+        <v>36</v>
+      </c>
+      <c r="F288">
+        <v>1467312.9</v>
+      </c>
+      <c r="G288">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>33</v>
+      </c>
+      <c r="C289" t="s">
+        <v>23</v>
+      </c>
+      <c r="D289" t="s">
+        <v>10</v>
+      </c>
+      <c r="E289" t="s">
+        <v>34</v>
+      </c>
+      <c r="F289">
+        <v>280917.52</v>
+      </c>
+      <c r="G289">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>33</v>
+      </c>
+      <c r="C290" t="s">
+        <v>23</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" t="s">
+        <v>35</v>
+      </c>
+      <c r="F290">
+        <v>117852.38</v>
+      </c>
+      <c r="G290">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>33</v>
+      </c>
+      <c r="C291" t="s">
+        <v>23</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" t="s">
+        <v>36</v>
+      </c>
+      <c r="F291">
+        <v>780945.84</v>
+      </c>
+      <c r="G291">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>33</v>
+      </c>
+      <c r="C292" t="s">
+        <v>23</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" t="s">
+        <v>34</v>
+      </c>
+      <c r="F292">
+        <v>136151.44</v>
+      </c>
+      <c r="G292">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>33</v>
+      </c>
+      <c r="C293" t="s">
+        <v>24</v>
+      </c>
+      <c r="D293" t="s">
+        <v>7</v>
+      </c>
+      <c r="E293" t="s">
+        <v>35</v>
+      </c>
+      <c r="F293">
+        <v>16083.24</v>
+      </c>
+      <c r="G293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>33</v>
+      </c>
+      <c r="C294" t="s">
+        <v>24</v>
+      </c>
+      <c r="D294" t="s">
+        <v>7</v>
+      </c>
+      <c r="E294" t="s">
+        <v>36</v>
+      </c>
+      <c r="F294">
+        <v>14465.76</v>
+      </c>
+      <c r="G294">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>33</v>
+      </c>
+      <c r="C295" t="s">
+        <v>24</v>
+      </c>
+      <c r="D295" t="s">
+        <v>7</v>
+      </c>
+      <c r="E295" t="s">
+        <v>34</v>
+      </c>
+      <c r="F295">
+        <v>9294.94</v>
+      </c>
+      <c r="G295">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>33</v>
+      </c>
+      <c r="C296" t="s">
+        <v>24</v>
+      </c>
+      <c r="D296" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" t="s">
+        <v>35</v>
+      </c>
+      <c r="F296">
+        <v>164864.67000000001</v>
+      </c>
+      <c r="G296">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>33</v>
+      </c>
+      <c r="C297" t="s">
+        <v>24</v>
+      </c>
+      <c r="D297" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297" t="s">
+        <v>36</v>
+      </c>
+      <c r="F297">
+        <v>283912.33</v>
+      </c>
+      <c r="G297">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>33</v>
+      </c>
+      <c r="C298" t="s">
+        <v>24</v>
+      </c>
+      <c r="D298" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" t="s">
+        <v>34</v>
+      </c>
+      <c r="F298">
+        <v>92213.17</v>
+      </c>
+      <c r="G298">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>33</v>
+      </c>
+      <c r="C299" t="s">
+        <v>24</v>
+      </c>
+      <c r="D299" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" t="s">
+        <v>35</v>
+      </c>
+      <c r="F299">
+        <v>455</v>
+      </c>
+      <c r="G299">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B300" t="s">
+        <v>33</v>
+      </c>
+      <c r="C300" t="s">
+        <v>24</v>
+      </c>
+      <c r="D300" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" t="s">
+        <v>36</v>
+      </c>
+      <c r="F300">
+        <v>18346.599999999999</v>
+      </c>
+      <c r="G300">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B301" t="s">
+        <v>33</v>
+      </c>
+      <c r="C301" t="s">
+        <v>24</v>
+      </c>
+      <c r="D301" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" t="s">
+        <v>34</v>
+      </c>
+      <c r="F301">
+        <v>18453.32</v>
+      </c>
+      <c r="G301">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B302" t="s">
+        <v>33</v>
+      </c>
+      <c r="C302" t="s">
+        <v>24</v>
+      </c>
+      <c r="D302" t="s">
+        <v>10</v>
+      </c>
+      <c r="E302" t="s">
+        <v>35</v>
+      </c>
+      <c r="F302">
+        <v>286575.28999999998</v>
+      </c>
+      <c r="G302">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B303" t="s">
+        <v>33</v>
+      </c>
+      <c r="C303" t="s">
+        <v>24</v>
+      </c>
+      <c r="D303" t="s">
+        <v>10</v>
+      </c>
+      <c r="E303" t="s">
+        <v>36</v>
+      </c>
+      <c r="F303">
+        <v>979677.04</v>
+      </c>
+      <c r="G303">
+        <v>2477</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B304" t="s">
+        <v>33</v>
+      </c>
+      <c r="C304" t="s">
+        <v>24</v>
+      </c>
+      <c r="D304" t="s">
+        <v>10</v>
+      </c>
+      <c r="E304" t="s">
+        <v>34</v>
+      </c>
+      <c r="F304">
+        <v>244128.72</v>
+      </c>
+      <c r="G304">
+        <v>2453</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B305" t="s">
+        <v>33</v>
+      </c>
+      <c r="C305" t="s">
+        <v>24</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" t="s">
+        <v>35</v>
+      </c>
+      <c r="F305">
+        <v>105172.38</v>
+      </c>
+      <c r="G305">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B306" t="s">
+        <v>33</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" t="s">
+        <v>36</v>
+      </c>
+      <c r="F306">
+        <v>662952.35</v>
+      </c>
+      <c r="G306">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B307" t="s">
+        <v>33</v>
+      </c>
+      <c r="C307" t="s">
+        <v>24</v>
+      </c>
+      <c r="D307" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>34</v>
+      </c>
+      <c r="F307">
+        <v>124167.29</v>
+      </c>
+      <c r="G307">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B308" t="s">
+        <v>33</v>
+      </c>
+      <c r="C308" t="s">
+        <v>25</v>
+      </c>
+      <c r="D308" t="s">
+        <v>7</v>
+      </c>
+      <c r="E308" t="s">
+        <v>35</v>
+      </c>
+      <c r="F308">
+        <v>10596.64</v>
+      </c>
+      <c r="G308">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B309" t="s">
+        <v>33</v>
+      </c>
+      <c r="C309" t="s">
+        <v>25</v>
+      </c>
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" t="s">
+        <v>36</v>
+      </c>
+      <c r="F309">
+        <v>17424.84</v>
+      </c>
+      <c r="G309">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B310" t="s">
+        <v>33</v>
+      </c>
+      <c r="C310" t="s">
+        <v>25</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" t="s">
+        <v>34</v>
+      </c>
+      <c r="F310">
+        <v>6884.6841000000004</v>
+      </c>
+      <c r="G310">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B311" t="s">
+        <v>33</v>
+      </c>
+      <c r="C311" t="s">
+        <v>25</v>
+      </c>
+      <c r="D311" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311" t="s">
+        <v>35</v>
+      </c>
+      <c r="F311">
+        <v>225099.12</v>
+      </c>
+      <c r="G311">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B312" t="s">
+        <v>33</v>
+      </c>
+      <c r="C312" t="s">
+        <v>25</v>
+      </c>
+      <c r="D312" t="s">
+        <v>8</v>
+      </c>
+      <c r="E312" t="s">
+        <v>36</v>
+      </c>
+      <c r="F312">
+        <v>392821.79</v>
+      </c>
+      <c r="G312">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B313" t="s">
+        <v>33</v>
+      </c>
+      <c r="C313" t="s">
+        <v>25</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" t="s">
+        <v>34</v>
+      </c>
+      <c r="F313">
+        <v>160507.41529999999</v>
+      </c>
+      <c r="G313">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B314" t="s">
+        <v>33</v>
+      </c>
+      <c r="C314" t="s">
+        <v>25</v>
+      </c>
+      <c r="D314" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
+        <v>35</v>
+      </c>
+      <c r="F314">
+        <v>2150.14</v>
+      </c>
+      <c r="G314">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B315" t="s">
+        <v>33</v>
+      </c>
+      <c r="C315" t="s">
+        <v>25</v>
+      </c>
+      <c r="D315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>36</v>
+      </c>
+      <c r="F315">
+        <v>23809.279999999999</v>
+      </c>
+      <c r="G315">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B316" t="s">
+        <v>33</v>
+      </c>
+      <c r="C316" t="s">
+        <v>25</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>34</v>
+      </c>
+      <c r="F316">
+        <v>18278.694</v>
+      </c>
+      <c r="G316">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B317" t="s">
+        <v>33</v>
+      </c>
+      <c r="C317" t="s">
+        <v>25</v>
+      </c>
+      <c r="D317" t="s">
+        <v>10</v>
+      </c>
+      <c r="E317" t="s">
+        <v>35</v>
+      </c>
+      <c r="F317">
+        <v>400094.32</v>
+      </c>
+      <c r="G317">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B318" t="s">
+        <v>33</v>
+      </c>
+      <c r="C318" t="s">
+        <v>25</v>
+      </c>
+      <c r="D318" t="s">
+        <v>10</v>
+      </c>
+      <c r="E318" t="s">
+        <v>36</v>
+      </c>
+      <c r="F318">
+        <v>1406686.79</v>
+      </c>
+      <c r="G318">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B319" t="s">
+        <v>33</v>
+      </c>
+      <c r="C319" t="s">
+        <v>25</v>
+      </c>
+      <c r="D319" t="s">
+        <v>10</v>
+      </c>
+      <c r="E319" t="s">
+        <v>34</v>
+      </c>
+      <c r="F319">
+        <v>407269.79639999999</v>
+      </c>
+      <c r="G319">
+        <v>2609</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B320" t="s">
+        <v>33</v>
+      </c>
+      <c r="C320" t="s">
+        <v>25</v>
+      </c>
+      <c r="D320" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" t="s">
+        <v>35</v>
+      </c>
+      <c r="F320">
+        <v>162248.42000000001</v>
+      </c>
+      <c r="G320">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B321" t="s">
+        <v>33</v>
+      </c>
+      <c r="C321" t="s">
+        <v>25</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" t="s">
+        <v>36</v>
+      </c>
+      <c r="F321">
+        <v>972630.88</v>
+      </c>
+      <c r="G321">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B322" t="s">
+        <v>33</v>
+      </c>
+      <c r="C322" t="s">
+        <v>25</v>
+      </c>
+      <c r="D322" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" t="s">
+        <v>34</v>
+      </c>
+      <c r="F322">
+        <v>221599.003</v>
+      </c>
+      <c r="G322">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B323" t="s">
+        <v>33</v>
+      </c>
+      <c r="C323" t="s">
+        <v>26</v>
+      </c>
+      <c r="D323" t="s">
+        <v>7</v>
+      </c>
+      <c r="E323" t="s">
+        <v>35</v>
+      </c>
+      <c r="F323">
+        <v>321.99</v>
+      </c>
+      <c r="G323">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B324" t="s">
+        <v>33</v>
+      </c>
+      <c r="C324" t="s">
+        <v>26</v>
+      </c>
+      <c r="D324" t="s">
+        <v>7</v>
+      </c>
+      <c r="E324" t="s">
+        <v>36</v>
+      </c>
+      <c r="F324">
+        <v>17728.36</v>
+      </c>
+      <c r="G324">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B325" t="s">
+        <v>33</v>
+      </c>
+      <c r="C325" t="s">
+        <v>26</v>
+      </c>
+      <c r="D325" t="s">
+        <v>7</v>
+      </c>
+      <c r="E325" t="s">
+        <v>34</v>
+      </c>
+      <c r="F325">
+        <v>9981.24</v>
+      </c>
+      <c r="G325">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B326" t="s">
+        <v>33</v>
+      </c>
+      <c r="C326" t="s">
+        <v>26</v>
+      </c>
+      <c r="D326" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" t="s">
+        <v>35</v>
+      </c>
+      <c r="F326">
+        <v>158783.26</v>
+      </c>
+      <c r="G326">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B327" t="s">
+        <v>33</v>
+      </c>
+      <c r="C327" t="s">
+        <v>26</v>
+      </c>
+      <c r="D327" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327" t="s">
+        <v>36</v>
+      </c>
+      <c r="F327">
+        <v>241547</v>
+      </c>
+      <c r="G327">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B328" t="s">
+        <v>33</v>
+      </c>
+      <c r="C328" t="s">
+        <v>26</v>
+      </c>
+      <c r="D328" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328" t="s">
+        <v>34</v>
+      </c>
+      <c r="F328">
+        <v>184575.9902</v>
+      </c>
+      <c r="G328">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B329" t="s">
+        <v>33</v>
+      </c>
+      <c r="C329" t="s">
+        <v>26</v>
+      </c>
+      <c r="D329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>35</v>
+      </c>
+      <c r="F329">
+        <v>1873.76</v>
+      </c>
+      <c r="G329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B330" t="s">
+        <v>33</v>
+      </c>
+      <c r="C330" t="s">
+        <v>26</v>
+      </c>
+      <c r="D330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>36</v>
+      </c>
+      <c r="F330">
+        <v>19800.549599999998</v>
+      </c>
+      <c r="G330">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="331" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B331" t="s">
+        <v>33</v>
+      </c>
+      <c r="C331" t="s">
+        <v>26</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>34</v>
+      </c>
+      <c r="F331">
+        <v>18148.577700000002</v>
+      </c>
+      <c r="G331">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="332" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B332" t="s">
+        <v>33</v>
+      </c>
+      <c r="C332" t="s">
+        <v>26</v>
+      </c>
+      <c r="D332" t="s">
+        <v>10</v>
+      </c>
+      <c r="E332" t="s">
+        <v>35</v>
+      </c>
+      <c r="F332">
+        <v>251495.91</v>
+      </c>
+      <c r="G332">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="333" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B333" t="s">
+        <v>33</v>
+      </c>
+      <c r="C333" t="s">
+        <v>26</v>
+      </c>
+      <c r="D333" t="s">
+        <v>10</v>
+      </c>
+      <c r="E333" t="s">
+        <v>36</v>
+      </c>
+      <c r="F333">
+        <v>530268.72959999996</v>
+      </c>
+      <c r="G333">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="334" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B334" t="s">
+        <v>33</v>
+      </c>
+      <c r="C334" t="s">
+        <v>26</v>
+      </c>
+      <c r="D334" t="s">
+        <v>10</v>
+      </c>
+      <c r="E334" t="s">
+        <v>34</v>
+      </c>
+      <c r="F334">
+        <v>413618.20120000001</v>
+      </c>
+      <c r="G334">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="335" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B335" t="s">
+        <v>33</v>
+      </c>
+      <c r="C335" t="s">
+        <v>26</v>
+      </c>
+      <c r="D335" t="s">
+        <v>11</v>
+      </c>
+      <c r="E335" t="s">
+        <v>35</v>
+      </c>
+      <c r="F335">
+        <v>90516.9</v>
+      </c>
+      <c r="G335">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="336" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B336" t="s">
+        <v>33</v>
+      </c>
+      <c r="C336" t="s">
+        <v>26</v>
+      </c>
+      <c r="D336" t="s">
+        <v>11</v>
+      </c>
+      <c r="E336" t="s">
+        <v>36</v>
+      </c>
+      <c r="F336">
+        <v>251192.82</v>
+      </c>
+      <c r="G336">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="337" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B337" t="s">
+        <v>33</v>
+      </c>
+      <c r="C337" t="s">
+        <v>26</v>
+      </c>
+      <c r="D337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337" t="s">
+        <v>34</v>
+      </c>
+      <c r="F337">
+        <v>200912.3933</v>
+      </c>
+      <c r="G337">
+        <v>1249</v>
       </c>
     </row>
   </sheetData>
